--- a/Code/Results/Cases/Case_5_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,845 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.07220670346872</v>
+        <v>21.31630786420054</v>
       </c>
       <c r="C2">
-        <v>11.78651229725657</v>
+        <v>13.13721706796933</v>
       </c>
       <c r="D2">
-        <v>7.859605531446046</v>
+        <v>5.113864211552905</v>
       </c>
       <c r="E2">
-        <v>7.666528544554155</v>
+        <v>7.331313196837214</v>
       </c>
       <c r="F2">
-        <v>63.60044944525168</v>
+        <v>37.42099438407623</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.58441987295322</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.78544356053775</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.171159164724543</v>
       </c>
       <c r="M2">
-        <v>14.37187020587448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>12.50247702636668</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>29.76483297851511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.71561786130695</v>
+        <v>19.8019143570242</v>
       </c>
       <c r="C3">
-        <v>10.90011303468991</v>
+        <v>12.41605368764968</v>
       </c>
       <c r="D3">
-        <v>7.504020140030954</v>
+        <v>5.180690756627628</v>
       </c>
       <c r="E3">
-        <v>7.336507570182829</v>
+        <v>7.357870517459868</v>
       </c>
       <c r="F3">
-        <v>59.86556579191203</v>
+        <v>35.83478966045487</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.219434055152279</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.62003600966627</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.09850813047289</v>
       </c>
       <c r="M3">
-        <v>13.34252626685355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.95988864101198</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>28.6943183697729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.84674683955407</v>
+        <v>18.82514228869743</v>
       </c>
       <c r="C4">
-        <v>10.33373179117065</v>
+        <v>11.95439287755548</v>
       </c>
       <c r="D4">
-        <v>7.281939422116275</v>
+        <v>5.223098159040689</v>
       </c>
       <c r="E4">
-        <v>7.134649625638984</v>
+        <v>7.375022361993826</v>
       </c>
       <c r="F4">
-        <v>57.51010649499801</v>
+        <v>34.86364580025809</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.995366813765759</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>13.8732534732571</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.057030712259708</v>
       </c>
       <c r="M4">
-        <v>12.68281038934523</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.62390926522332</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>28.0465442563083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.48338639127176</v>
+        <v>18.44781024264787</v>
       </c>
       <c r="C5">
-        <v>10.09713836500289</v>
+        <v>11.7615275141102</v>
       </c>
       <c r="D5">
-        <v>7.19048623124054</v>
+        <v>5.240716958272852</v>
       </c>
       <c r="E5">
-        <v>7.052632989372409</v>
+        <v>7.382219880928188</v>
       </c>
       <c r="F5">
-        <v>56.53474467459836</v>
+        <v>34.46894155399703</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.904090074959928</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>13.56082758867031</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.040902047185718</v>
       </c>
       <c r="M5">
-        <v>12.40679747031984</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.48644694780268</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>27.78512976653041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.42248280812098</v>
+        <v>18.38549426294014</v>
       </c>
       <c r="C6">
-        <v>10.05749643762218</v>
+        <v>11.72921710016626</v>
       </c>
       <c r="D6">
-        <v>7.175242914464953</v>
+        <v>5.243662712531632</v>
       </c>
       <c r="E6">
-        <v>7.039030512529355</v>
+        <v>7.383427463386597</v>
       </c>
       <c r="F6">
-        <v>56.37185966606479</v>
+        <v>34.40347548979006</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.888936588309006</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>13.50845287248479</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.038270226147344</v>
       </c>
       <c r="M6">
-        <v>12.36052676319188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.4635936184342</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>27.74188185454685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.84188435689947</v>
+        <v>18.81966173120814</v>
       </c>
       <c r="C7">
-        <v>10.33056472809933</v>
+        <v>11.95181097076912</v>
       </c>
       <c r="D7">
-        <v>7.280709915139</v>
+        <v>5.223334415953104</v>
       </c>
       <c r="E7">
-        <v>7.133542465706413</v>
+        <v>7.375118593685722</v>
       </c>
       <c r="F7">
-        <v>57.4970147893359</v>
+        <v>34.85831795344209</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.994135649772264</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>13.86907313137437</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.056810080655509</v>
       </c>
       <c r="M7">
-        <v>12.67911728878486</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.62205738414337</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>28.04300813553037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.61174521292589</v>
+        <v>20.80380122068268</v>
       </c>
       <c r="C8">
-        <v>11.48533278979956</v>
+        <v>12.89247295128827</v>
       </c>
       <c r="D8">
-        <v>7.737766251969645</v>
+        <v>5.136614810948443</v>
       </c>
       <c r="E8">
-        <v>7.552598609164794</v>
+        <v>7.340291685230528</v>
       </c>
       <c r="F8">
-        <v>62.32559900680116</v>
+        <v>36.8736769440115</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.45857427931133</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>15.3899285472234</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.14545120749469</v>
       </c>
       <c r="M8">
-        <v>14.02256743164241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.31606888714882</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>29.39383173485871</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.81092432612483</v>
+        <v>24.32926937141175</v>
       </c>
       <c r="C9">
-        <v>13.5856610567612</v>
+        <v>14.58829945344254</v>
       </c>
       <c r="D9">
-        <v>8.60577592698246</v>
+        <v>4.977964565960045</v>
       </c>
       <c r="E9">
-        <v>8.379555180686953</v>
+        <v>7.27895122047274</v>
       </c>
       <c r="F9">
-        <v>71.30618324077801</v>
+        <v>40.83662894350514</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.36960116391246</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>18.13759687961931</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.344742250842887</v>
       </c>
       <c r="M9">
-        <v>16.44806123557762</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.7337276188794</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>32.11299036550273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.01805167016177</v>
+        <v>26.70798375148392</v>
       </c>
       <c r="C10">
-        <v>15.0470828374864</v>
+        <v>15.74641470918805</v>
       </c>
       <c r="D10">
-        <v>9.229977991035938</v>
+        <v>4.86925832975783</v>
       </c>
       <c r="E10">
-        <v>8.990901860749254</v>
+        <v>7.238538986004989</v>
       </c>
       <c r="F10">
-        <v>77.63250721321953</v>
+        <v>43.74589559413772</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.04090919885121</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>20.03400365583845</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.507632006326084</v>
       </c>
       <c r="M10">
-        <v>18.11999706890277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>15.04157884347069</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>34.14978683979469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.99713047088942</v>
+        <v>27.74719034854031</v>
       </c>
       <c r="C11">
-        <v>15.69918420112888</v>
+        <v>16.25530465107912</v>
       </c>
       <c r="D11">
-        <v>9.512362668019115</v>
+        <v>4.821792669957762</v>
       </c>
       <c r="E11">
-        <v>9.270609352612377</v>
+        <v>7.221283991212878</v>
       </c>
       <c r="F11">
-        <v>80.46266251252308</v>
+        <v>45.06894193234019</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.34774179487264</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>20.87578053725743</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.585552870192654</v>
       </c>
       <c r="M11">
-        <v>18.86140825549979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>15.61267895235006</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>35.08522465307888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.36491812868301</v>
+        <v>28.13482968123456</v>
       </c>
       <c r="C12">
-        <v>15.94480029769342</v>
+        <v>16.44554980302883</v>
       </c>
       <c r="D12">
-        <v>9.619226208477516</v>
+        <v>4.804135812017239</v>
       </c>
       <c r="E12">
-        <v>9.376871668961131</v>
+        <v>7.214924857973354</v>
       </c>
       <c r="F12">
-        <v>81.52884560856974</v>
+        <v>45.5700283812987</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.46427370456628</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>21.192100830068</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.615632626336783</v>
       </c>
       <c r="M12">
-        <v>19.13988315830553</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15.82567455676339</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.44084827722057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.28582935040847</v>
+        <v>28.05160151695727</v>
       </c>
       <c r="C13">
-        <v>15.89195210712019</v>
+        <v>16.40468434458962</v>
       </c>
       <c r="D13">
-        <v>9.596211378959964</v>
+        <v>4.8079238278021</v>
       </c>
       <c r="E13">
-        <v>9.353968626029069</v>
+        <v>7.216286401238239</v>
       </c>
       <c r="F13">
-        <v>81.2994450005704</v>
+        <v>45.46210363276735</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.43915868801203</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>21.12407411327454</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.609128519719007</v>
       </c>
       <c r="M13">
-        <v>19.08000158184399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15.77994469613724</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.36419369013331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.02744410130024</v>
+        <v>27.7791978883537</v>
       </c>
       <c r="C14">
-        <v>15.71941440773744</v>
+        <v>16.27100476513153</v>
       </c>
       <c r="D14">
-        <v>9.521154742146075</v>
+        <v>4.820333459493999</v>
       </c>
       <c r="E14">
-        <v>9.279343930448491</v>
+        <v>7.220757233643574</v>
       </c>
       <c r="F14">
-        <v>80.55048002947787</v>
+        <v>45.11016388423635</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.35732118348835</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>20.90184974437188</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.588015921183635</v>
       </c>
       <c r="M14">
-        <v>18.88436125031404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15.63026672453811</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>35.11445314667098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.86880950831092</v>
+        <v>27.61158526906155</v>
       </c>
       <c r="C15">
-        <v>15.61357476550722</v>
+        <v>16.18880574455546</v>
       </c>
       <c r="D15">
-        <v>9.475176694250308</v>
+        <v>4.827977121925476</v>
       </c>
       <c r="E15">
-        <v>9.233682963703755</v>
+        <v>7.22351895037307</v>
       </c>
       <c r="F15">
-        <v>80.09104227170786</v>
+        <v>44.89460666147319</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.30724249324146</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>20.76543133715642</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.575159205606199</v>
       </c>
       <c r="M15">
-        <v>18.76424433262736</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.53816421862803</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>34.96166612699113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.95361488222563</v>
+        <v>26.63922944252354</v>
       </c>
       <c r="C16">
-        <v>15.00425201715277</v>
+        <v>15.71280614430734</v>
       </c>
       <c r="D16">
-        <v>9.211504347483599</v>
+        <v>4.872402828679342</v>
       </c>
       <c r="E16">
-        <v>8.972663187110836</v>
+        <v>7.239690379496425</v>
       </c>
       <c r="F16">
-        <v>77.44669474579267</v>
+        <v>43.65943236194303</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.020896448367</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>19.97861680068243</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.502618491315635</v>
       </c>
       <c r="M16">
-        <v>18.07119714081109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>15.00378963897555</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>34.08884073036406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.38618800622742</v>
+        <v>26.03192611688272</v>
       </c>
       <c r="C17">
-        <v>14.6275301908794</v>
+        <v>15.4162773256209</v>
       </c>
       <c r="D17">
-        <v>9.049446740601311</v>
+        <v>4.900185458759517</v>
       </c>
       <c r="E17">
-        <v>8.813012891570621</v>
+        <v>7.249908375191007</v>
       </c>
       <c r="F17">
-        <v>75.81308160581159</v>
+        <v>42.90165199830846</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.84568423689481</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>19.49094745737358</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.459111218002072</v>
       </c>
       <c r="M17">
-        <v>17.64143904630303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.66996958831553</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>33.55572503338961</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.05742714995119</v>
+        <v>25.67856617278702</v>
       </c>
       <c r="C18">
-        <v>14.40961858521334</v>
+        <v>15.2440242585084</v>
       </c>
       <c r="D18">
-        <v>8.95607632194964</v>
+        <v>4.916349857497291</v>
       </c>
       <c r="E18">
-        <v>8.721327895214785</v>
+        <v>7.255890849224905</v>
       </c>
       <c r="F18">
-        <v>74.86887889078648</v>
+        <v>42.46574493841494</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.74503296703766</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>19.20844595917802</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.434445078230132</v>
       </c>
       <c r="M18">
-        <v>17.39241724602694</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.47570976475043</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>33.24991621906162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.94568645383242</v>
+        <v>25.55822011308332</v>
       </c>
       <c r="C19">
-        <v>14.33561202780277</v>
+        <v>15.1854075509172</v>
       </c>
       <c r="D19">
-        <v>8.924431265181331</v>
+        <v>4.921853691687041</v>
       </c>
       <c r="E19">
-        <v>8.69030654016014</v>
+        <v>7.257934160133956</v>
       </c>
       <c r="F19">
-        <v>74.54836489861987</v>
+        <v>42.31814314894382</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.71097254221777</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>19.11243550053642</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.426154405201581</v>
       </c>
       <c r="M19">
-        <v>17.30777425551917</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14.40954472862856</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>33.14651409166873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.44683498581093</v>
+        <v>26.09699236285435</v>
       </c>
       <c r="C20">
-        <v>14.66775691572285</v>
+        <v>15.44801822842924</v>
       </c>
       <c r="D20">
-        <v>9.066713522479779</v>
+        <v>4.897208641306106</v>
       </c>
       <c r="E20">
-        <v>8.829992605606718</v>
+        <v>7.248809664566617</v>
       </c>
       <c r="F20">
-        <v>75.98744928090539</v>
+        <v>42.98232376592811</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.86432200493116</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>19.54306463715351</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.463705424529613</v>
       </c>
       <c r="M20">
-        <v>17.68737441467956</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.70573760967135</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>33.61239011385172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.10341314518277</v>
+        <v>27.85936675264027</v>
       </c>
       <c r="C21">
-        <v>15.77012423816327</v>
+        <v>16.31033538816029</v>
       </c>
       <c r="D21">
-        <v>9.5432011254701</v>
+        <v>4.816679544842897</v>
       </c>
       <c r="E21">
-        <v>9.301252572466165</v>
+        <v>7.219439180155756</v>
       </c>
       <c r="F21">
-        <v>80.77060697498463</v>
+        <v>45.21353337500027</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.38134829662594</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>20.96718370004177</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.594201450338787</v>
       </c>
       <c r="M21">
-        <v>18.94188326379219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15.6743180743718</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>35.18776885882164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.1691595223487</v>
+        <v>28.97703180436369</v>
       </c>
       <c r="C22">
-        <v>16.48319692019015</v>
+        <v>16.85964321655698</v>
       </c>
       <c r="D22">
-        <v>9.854313370677339</v>
+        <v>4.765919557367626</v>
       </c>
       <c r="E22">
-        <v>9.61133547729994</v>
+        <v>7.201271451034867</v>
       </c>
       <c r="F22">
-        <v>83.86531349321777</v>
+        <v>46.67235608819554</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.72134009496348</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>21.88403402759855</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.682841054686629</v>
       </c>
       <c r="M22">
-        <v>19.74876683268403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16.28838423482812</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.22560575294563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.60166218046933</v>
+        <v>28.38353495015215</v>
       </c>
       <c r="C23">
-        <v>16.10309900431456</v>
+        <v>16.56772610201317</v>
       </c>
       <c r="D23">
-        <v>9.688231309804062</v>
+        <v>4.792827363814047</v>
       </c>
       <c r="E23">
-        <v>9.445597744319674</v>
+        <v>7.210869024254986</v>
       </c>
       <c r="F23">
-        <v>82.21593992667091</v>
+        <v>45.8936254545835</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.53963275753959</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>21.39575016176348</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.635216778149962</v>
       </c>
       <c r="M23">
-        <v>19.31912782325054</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.9623217355909</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.67087967840926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.41942444162407</v>
+        <v>26.06758905688765</v>
       </c>
       <c r="C24">
-        <v>14.64957459033484</v>
+        <v>15.4336737027536</v>
       </c>
       <c r="D24">
-        <v>9.058907848611401</v>
+        <v>4.898553865392846</v>
       </c>
       <c r="E24">
-        <v>8.822315772920648</v>
+        <v>7.249306056123348</v>
       </c>
       <c r="F24">
-        <v>75.90863337594284</v>
+        <v>42.94585284410986</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.85589562828415</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>19.51950914775458</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.461627305343412</v>
       </c>
       <c r="M24">
-        <v>17.66661313704743</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.68957419471166</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>33.58676970033487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.97244475391337</v>
+        <v>23.4135818155574</v>
       </c>
       <c r="C25">
-        <v>13.03330270812152</v>
+        <v>14.14524806322254</v>
       </c>
       <c r="D25">
-        <v>8.373689935400639</v>
+        <v>5.019583217444774</v>
       </c>
       <c r="E25">
-        <v>8.155324593211056</v>
+        <v>7.294762691053233</v>
       </c>
       <c r="F25">
-        <v>68.92722896371818</v>
+        <v>39.76463505423954</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.12302646809034</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>17.41743639756737</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.288009579399835</v>
       </c>
       <c r="M25">
-        <v>15.81263654460796</v>
+        <v>13.29201419326604</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>31.37044612763149</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.31630786420054</v>
+        <v>15.6466108560457</v>
       </c>
       <c r="C2">
-        <v>13.13721706796933</v>
+        <v>8.563320045787139</v>
       </c>
       <c r="D2">
-        <v>5.113864211552905</v>
+        <v>2.679854529043762</v>
       </c>
       <c r="E2">
-        <v>7.331313196837214</v>
+        <v>7.113971428209283</v>
       </c>
       <c r="F2">
-        <v>37.42099438407623</v>
+        <v>39.06873455809544</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.146353117704111</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.66531623375289</v>
       </c>
       <c r="L2">
-        <v>6.171159164724543</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.50247702636668</v>
+        <v>12.76002844332388</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>17.2262364998544</v>
       </c>
       <c r="O2">
-        <v>29.76483297851511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.8019143570242</v>
+        <v>14.77502521965008</v>
       </c>
       <c r="C3">
-        <v>12.41605368764968</v>
+        <v>8.043309419610113</v>
       </c>
       <c r="D3">
-        <v>5.180690756627628</v>
+        <v>2.585514362296246</v>
       </c>
       <c r="E3">
-        <v>7.357870517459868</v>
+        <v>6.979292365052682</v>
       </c>
       <c r="F3">
-        <v>35.83478966045487</v>
+        <v>38.16526727226892</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.14319936379128</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.98402169977746</v>
       </c>
       <c r="L3">
-        <v>6.09850813047289</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.95988864101198</v>
+        <v>12.3348903312722</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>17.32284090742859</v>
       </c>
       <c r="O3">
-        <v>28.6943183697729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.82514228869743</v>
+        <v>14.22492208072617</v>
       </c>
       <c r="C4">
-        <v>11.95439287755548</v>
+        <v>7.713528150315884</v>
       </c>
       <c r="D4">
-        <v>5.223098159040689</v>
+        <v>2.527177393135901</v>
       </c>
       <c r="E4">
-        <v>7.375022361993826</v>
+        <v>6.899410948474091</v>
       </c>
       <c r="F4">
-        <v>34.86364580025809</v>
+        <v>37.62752669124128</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.143740544147621</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.55763823719373</v>
       </c>
       <c r="L4">
-        <v>6.057030712259708</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.62390926522332</v>
+        <v>12.07526200597859</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>17.38725486531098</v>
       </c>
       <c r="O4">
-        <v>28.0465442563083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.44781024264787</v>
+        <v>13.9972238981342</v>
       </c>
       <c r="C5">
-        <v>11.7615275141102</v>
+        <v>7.576602833136397</v>
       </c>
       <c r="D5">
-        <v>5.240716958272852</v>
+        <v>2.503340416182263</v>
       </c>
       <c r="E5">
-        <v>7.382219880928188</v>
+        <v>6.867585008253957</v>
       </c>
       <c r="F5">
-        <v>34.46894155399703</v>
+        <v>37.4127424479129</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.14456795294891</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.38206750283784</v>
       </c>
       <c r="L5">
-        <v>6.040902047185718</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.48644694780268</v>
+        <v>11.96994366379561</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>17.41474550227569</v>
       </c>
       <c r="O5">
-        <v>27.78512976653041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.38549426294014</v>
+        <v>13.95920960610345</v>
       </c>
       <c r="C6">
-        <v>11.72921710016626</v>
+        <v>7.553716859758268</v>
       </c>
       <c r="D6">
-        <v>5.243662712531632</v>
+        <v>2.499379645100498</v>
       </c>
       <c r="E6">
-        <v>7.383427463386597</v>
+        <v>6.862344754586855</v>
       </c>
       <c r="F6">
-        <v>34.40347548979006</v>
+        <v>37.3773425776009</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.144741534618293</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.3528113966571</v>
       </c>
       <c r="L6">
-        <v>6.038270226147344</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.4635936184342</v>
+        <v>11.95248869786447</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>17.41938415652615</v>
       </c>
       <c r="O6">
-        <v>27.74188185454685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.81966173120814</v>
+        <v>14.22186519748386</v>
       </c>
       <c r="C7">
-        <v>11.95181097076912</v>
+        <v>7.711691641664848</v>
       </c>
       <c r="D7">
-        <v>5.223334415953104</v>
+        <v>2.526856124666989</v>
       </c>
       <c r="E7">
-        <v>7.375118593685722</v>
+        <v>6.898978766683518</v>
       </c>
       <c r="F7">
-        <v>34.85831795344209</v>
+        <v>37.62461232523531</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.143749266621787</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.55527747282973</v>
       </c>
       <c r="L7">
-        <v>6.056810080655509</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.62205738414337</v>
+        <v>12.07383951651972</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>17.38762063838394</v>
       </c>
       <c r="O7">
-        <v>28.04300813553037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.80380122068268</v>
+        <v>15.34931284588386</v>
       </c>
       <c r="C8">
-        <v>12.89247295128827</v>
+        <v>8.386249712963563</v>
       </c>
       <c r="D8">
-        <v>5.136614810948443</v>
+        <v>2.647433985489262</v>
       </c>
       <c r="E8">
-        <v>7.340291685230528</v>
+        <v>7.066962136944177</v>
       </c>
       <c r="F8">
-        <v>36.8736769440115</v>
+        <v>38.75373810059715</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.144741602758312</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.43219522450774</v>
       </c>
       <c r="L8">
-        <v>6.14545120749469</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.31606888714882</v>
+        <v>12.61322216148519</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>17.25846200364786</v>
       </c>
       <c r="O8">
-        <v>29.39383173485871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.32926937141175</v>
+        <v>17.43410663422397</v>
       </c>
       <c r="C9">
-        <v>14.58829945344254</v>
+        <v>9.626464874361918</v>
       </c>
       <c r="D9">
-        <v>4.977964565960045</v>
+        <v>2.879082897666613</v>
       </c>
       <c r="E9">
-        <v>7.27895122047274</v>
+        <v>7.417849285965354</v>
       </c>
       <c r="F9">
-        <v>40.83662894350514</v>
+        <v>41.09968571038949</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.167101735010593</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.08050407818856</v>
       </c>
       <c r="L9">
-        <v>6.344742250842887</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.7337276188794</v>
+        <v>13.67711537542508</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>17.04765046328395</v>
       </c>
       <c r="O9">
-        <v>32.11299036550273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.70798375148392</v>
+        <v>18.88219057815713</v>
       </c>
       <c r="C10">
-        <v>15.74641470918805</v>
+        <v>10.56551918878067</v>
       </c>
       <c r="D10">
-        <v>4.86925832975783</v>
+        <v>3.044575501809486</v>
       </c>
       <c r="E10">
-        <v>7.238538986004989</v>
+        <v>7.687694970735917</v>
       </c>
       <c r="F10">
-        <v>43.74589559413772</v>
+        <v>42.90043111538054</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.197071542650463</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.24784760635617</v>
       </c>
       <c r="L10">
-        <v>6.507632006326084</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>15.04157884347069</v>
+        <v>14.45689012060458</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>16.92176413891304</v>
       </c>
       <c r="O10">
-        <v>34.14978683979469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.74719034854031</v>
+        <v>19.55889569897251</v>
       </c>
       <c r="C11">
-        <v>16.25530465107912</v>
+        <v>10.97586901392275</v>
       </c>
       <c r="D11">
-        <v>4.821792669957762</v>
+        <v>3.118550626862035</v>
       </c>
       <c r="E11">
-        <v>7.221283991212878</v>
+        <v>7.812890442239352</v>
       </c>
       <c r="F11">
-        <v>45.06894193234019</v>
+        <v>43.73613980286466</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.213902359661372</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.87518927377519</v>
       </c>
       <c r="L11">
-        <v>6.585552870192654</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>15.61267895235006</v>
+        <v>14.81037591587665</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>16.87157953003057</v>
       </c>
       <c r="O11">
-        <v>35.08522465307888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.13482968123456</v>
+        <v>19.82628634783735</v>
       </c>
       <c r="C12">
-        <v>16.44554980302883</v>
+        <v>11.12892134059222</v>
       </c>
       <c r="D12">
-        <v>4.804135812017239</v>
+        <v>3.146356156505471</v>
       </c>
       <c r="E12">
-        <v>7.214924857973354</v>
+        <v>7.860638403193596</v>
       </c>
       <c r="F12">
-        <v>45.5700283812987</v>
+        <v>44.05499270753287</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.220758282974639</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.10890517210017</v>
       </c>
       <c r="L12">
-        <v>6.615632626336783</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>15.82567455676339</v>
+        <v>14.94400729249364</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>16.85366917994008</v>
       </c>
       <c r="O12">
-        <v>35.44084827722057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.05160151695727</v>
+        <v>19.76888391817023</v>
       </c>
       <c r="C13">
-        <v>16.40468434458962</v>
+        <v>11.09606135154621</v>
       </c>
       <c r="D13">
-        <v>4.8079238278021</v>
+        <v>3.140377216816291</v>
       </c>
       <c r="E13">
-        <v>7.216286401238239</v>
+        <v>7.85034008713717</v>
       </c>
       <c r="F13">
-        <v>45.46210363276735</v>
+        <v>43.98621527216066</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.219259901597167</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.05873916087496</v>
       </c>
       <c r="L13">
-        <v>6.609128519719007</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>15.77994469613724</v>
+        <v>14.91523799064274</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>16.85747657550671</v>
       </c>
       <c r="O13">
-        <v>35.36419369013331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.7791978883537</v>
+        <v>19.58097760550062</v>
       </c>
       <c r="C14">
-        <v>16.27100476513153</v>
+        <v>10.98850707314152</v>
       </c>
       <c r="D14">
-        <v>4.820333459493999</v>
+        <v>3.120842453128706</v>
       </c>
       <c r="E14">
-        <v>7.220757233643574</v>
+        <v>7.816811952218182</v>
       </c>
       <c r="F14">
-        <v>45.11016388423635</v>
+        <v>43.76232397654455</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.214456595865527</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.89449352185819</v>
       </c>
       <c r="L14">
-        <v>6.588015921183635</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.63026672453811</v>
+        <v>14.82137458424824</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>16.87008365970907</v>
       </c>
       <c r="O14">
-        <v>35.11445314667098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.61158526906155</v>
+        <v>19.46533592527287</v>
       </c>
       <c r="C15">
-        <v>16.18880574455546</v>
+        <v>10.92232508862194</v>
       </c>
       <c r="D15">
-        <v>4.827977121925476</v>
+        <v>3.108849358666964</v>
       </c>
       <c r="E15">
-        <v>7.22351895037307</v>
+        <v>7.796318885159875</v>
       </c>
       <c r="F15">
-        <v>44.89460666147319</v>
+        <v>43.62549600338574</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.21157796267902</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.79339151341701</v>
       </c>
       <c r="L15">
-        <v>6.575159205606199</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.53816421862803</v>
+        <v>14.76385001415532</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>16.87795063751232</v>
       </c>
       <c r="O15">
-        <v>34.96166612699113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.63922944252354</v>
+        <v>18.83998478186983</v>
       </c>
       <c r="C16">
-        <v>15.71280614430734</v>
+        <v>10.53836994037182</v>
       </c>
       <c r="D16">
-        <v>4.872402828679342</v>
+        <v>3.039713000901046</v>
       </c>
       <c r="E16">
-        <v>7.239690379496425</v>
+        <v>7.679561170075039</v>
       </c>
       <c r="F16">
-        <v>43.65943236194303</v>
+        <v>42.84614845004302</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.196037852271967</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.2069575517896</v>
       </c>
       <c r="L16">
-        <v>6.502618491315635</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>15.00378963897555</v>
+        <v>14.43375953274196</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>16.92519255868798</v>
       </c>
       <c r="O16">
-        <v>34.08884073036406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.03192611688272</v>
+        <v>18.46801102461909</v>
       </c>
       <c r="C17">
-        <v>15.4162773256209</v>
+        <v>10.29856998055182</v>
       </c>
       <c r="D17">
-        <v>4.900185458759517</v>
+        <v>2.99695011404272</v>
       </c>
       <c r="E17">
-        <v>7.249908375191007</v>
+        <v>7.608549683406124</v>
       </c>
       <c r="F17">
-        <v>42.90165199830846</v>
+        <v>42.37227639750961</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.187339084459514</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.90793403622757</v>
       </c>
       <c r="L17">
-        <v>6.459111218002072</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.66996958831553</v>
+        <v>14.23090235398689</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>16.95603864407657</v>
       </c>
       <c r="O17">
-        <v>33.55572503338961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.67856617278702</v>
+        <v>18.25230007279498</v>
       </c>
       <c r="C18">
-        <v>15.2440242585084</v>
+        <v>10.15905362248118</v>
       </c>
       <c r="D18">
-        <v>4.916349857497291</v>
+        <v>2.972231774162515</v>
       </c>
       <c r="E18">
-        <v>7.255890849224905</v>
+        <v>7.567936038635597</v>
       </c>
       <c r="F18">
-        <v>42.46574493841494</v>
+        <v>42.10127207430543</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.18263529530093</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.73483753439653</v>
       </c>
       <c r="L18">
-        <v>6.434445078230132</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.47570976475043</v>
+        <v>14.11410945054001</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>16.97444209486422</v>
       </c>
       <c r="O18">
-        <v>33.24991621906162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.55822011308332</v>
+        <v>18.17896214591207</v>
       </c>
       <c r="C19">
-        <v>15.1854075509172</v>
+        <v>10.11154042040982</v>
       </c>
       <c r="D19">
-        <v>4.921853691687041</v>
+        <v>2.963842219722562</v>
       </c>
       <c r="E19">
-        <v>7.257934160133956</v>
+        <v>7.554224934207579</v>
       </c>
       <c r="F19">
-        <v>42.31814314894382</v>
+        <v>42.00978190019289</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.181093448533545</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.67604134257055</v>
       </c>
       <c r="L19">
-        <v>6.426154405201581</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.40954472862856</v>
+        <v>14.07454744373713</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>16.98078466070957</v>
       </c>
       <c r="O19">
-        <v>33.14651409166873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.09699236285435</v>
+        <v>18.50779069795835</v>
       </c>
       <c r="C20">
-        <v>15.44801822842924</v>
+        <v>10.32426107160402</v>
       </c>
       <c r="D20">
-        <v>4.897208641306106</v>
+        <v>3.00151510093684</v>
       </c>
       <c r="E20">
-        <v>7.248809664566617</v>
+        <v>7.616085242730569</v>
       </c>
       <c r="F20">
-        <v>42.98232376592811</v>
+        <v>42.42256005978307</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.188233925461555</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.93988035737578</v>
       </c>
       <c r="L20">
-        <v>6.463705424529613</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.70573760967135</v>
+        <v>14.25250914086915</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>16.95268603464913</v>
       </c>
       <c r="O20">
-        <v>33.61239011385172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.85936675264027</v>
+        <v>19.63628331489957</v>
       </c>
       <c r="C21">
-        <v>16.31033538816029</v>
+        <v>11.02016112180623</v>
       </c>
       <c r="D21">
-        <v>4.816679544842897</v>
+        <v>3.126586043607241</v>
       </c>
       <c r="E21">
-        <v>7.219439180155756</v>
+        <v>7.826650848231114</v>
       </c>
       <c r="F21">
-        <v>45.21353337500027</v>
+        <v>43.82802120631845</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.215854160799375</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.94283974347164</v>
       </c>
       <c r="L21">
-        <v>6.594201450338787</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.6743180743718</v>
+        <v>14.84895096084373</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>16.86635033652189</v>
       </c>
       <c r="O21">
-        <v>35.18776885882164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.97703180436369</v>
+        <v>20.40687838883011</v>
       </c>
       <c r="C22">
-        <v>16.85964321655698</v>
+        <v>11.46138918064915</v>
       </c>
       <c r="D22">
-        <v>4.765919557367626</v>
+        <v>3.207113132761583</v>
       </c>
       <c r="E22">
-        <v>7.201271451034867</v>
+        <v>7.96624205191873</v>
       </c>
       <c r="F22">
-        <v>46.67235608819554</v>
+        <v>44.76052304757204</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.236729432730198</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.6160954597585</v>
       </c>
       <c r="L22">
-        <v>6.682841054686629</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>16.28838423482812</v>
+        <v>15.23743470729745</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>16.81633963783927</v>
       </c>
       <c r="O22">
-        <v>36.22560575294563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.38353495015215</v>
+        <v>19.9977910869111</v>
       </c>
       <c r="C23">
-        <v>16.56772610201317</v>
+        <v>11.22711023563606</v>
       </c>
       <c r="D23">
-        <v>4.792827363814047</v>
+        <v>3.164250662695246</v>
       </c>
       <c r="E23">
-        <v>7.210869024254986</v>
+        <v>7.891561771916869</v>
       </c>
       <c r="F23">
-        <v>45.8936254545835</v>
+        <v>44.26153975532454</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.225321605106136</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.25876634930399</v>
       </c>
       <c r="L23">
-        <v>6.635216778149962</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15.9623217355909</v>
+        <v>15.03022559288577</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>16.84241728703173</v>
       </c>
       <c r="O23">
-        <v>35.67087967840926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.06758905688765</v>
+        <v>18.48981209520546</v>
       </c>
       <c r="C24">
-        <v>15.4336737027536</v>
+        <v>10.31265128153065</v>
       </c>
       <c r="D24">
-        <v>4.898553865392846</v>
+        <v>2.999451684333155</v>
       </c>
       <c r="E24">
-        <v>7.249306056123348</v>
+        <v>7.612677755673324</v>
       </c>
       <c r="F24">
-        <v>42.94585284410986</v>
+        <v>42.39982235894287</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.187828443677671</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.92544111087189</v>
       </c>
       <c r="L24">
-        <v>6.461627305343412</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.68957419471166</v>
+        <v>14.24274123068862</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>16.95419966921806</v>
       </c>
       <c r="O24">
-        <v>33.58676970033487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.4135818155574</v>
+        <v>16.88447660356247</v>
       </c>
       <c r="C25">
-        <v>14.14524806322254</v>
+        <v>9.297848984708539</v>
       </c>
       <c r="D25">
-        <v>5.019583217444774</v>
+        <v>2.817128492245499</v>
       </c>
       <c r="E25">
-        <v>7.294762691053233</v>
+        <v>7.320738831601011</v>
       </c>
       <c r="F25">
-        <v>39.76463505423954</v>
+        <v>40.45132048163045</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.158757307499545</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.6430984753786</v>
       </c>
       <c r="L25">
-        <v>6.288009579399835</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.29201419326604</v>
+        <v>13.38928436279085</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>17.09983324054216</v>
       </c>
       <c r="O25">
-        <v>31.37044612763149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.6466108560457</v>
+        <v>16.39505822365226</v>
       </c>
       <c r="C2">
-        <v>8.563320045787139</v>
+        <v>8.525222701492536</v>
       </c>
       <c r="D2">
-        <v>2.679854529043762</v>
+        <v>5.390011855418391</v>
       </c>
       <c r="E2">
-        <v>7.113971428209283</v>
+        <v>11.57574284004636</v>
       </c>
       <c r="F2">
-        <v>39.06873455809544</v>
+        <v>49.57651527291279</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.146353117704111</v>
+        <v>10.293943827033</v>
       </c>
       <c r="K2">
-        <v>13.66531623375289</v>
+        <v>15.97252694999251</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.76002844332388</v>
+        <v>18.23634088441713</v>
       </c>
       <c r="N2">
-        <v>17.2262364998544</v>
+        <v>24.59824231507136</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.77502521965008</v>
+        <v>16.23565866884602</v>
       </c>
       <c r="C3">
-        <v>8.043309419610113</v>
+        <v>8.425275859132425</v>
       </c>
       <c r="D3">
-        <v>2.585514362296246</v>
+        <v>5.396439464675177</v>
       </c>
       <c r="E3">
-        <v>6.979292365052682</v>
+        <v>11.58537427125258</v>
       </c>
       <c r="F3">
-        <v>38.16526727226892</v>
+        <v>49.48887899350181</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.14319936379128</v>
+        <v>10.31127922875074</v>
       </c>
       <c r="K3">
-        <v>12.98402169977746</v>
+        <v>15.87701324052378</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.3348903312722</v>
+        <v>18.21572541783846</v>
       </c>
       <c r="N3">
-        <v>17.32284090742859</v>
+        <v>24.63127097962112</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.22492208072617</v>
+        <v>16.14159039517525</v>
       </c>
       <c r="C4">
-        <v>7.713528150315884</v>
+        <v>8.365915977353515</v>
       </c>
       <c r="D4">
-        <v>2.527177393135901</v>
+        <v>5.401318553319227</v>
       </c>
       <c r="E4">
-        <v>6.899410948474091</v>
+        <v>11.59314335261705</v>
       </c>
       <c r="F4">
-        <v>37.62752669124128</v>
+        <v>49.44419366543287</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.143740544147621</v>
+        <v>10.3230180125713</v>
       </c>
       <c r="K4">
-        <v>12.55763823719373</v>
+        <v>15.82216627869775</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.07526200597859</v>
+        <v>18.206749774208</v>
       </c>
       <c r="N4">
-        <v>17.38725486531098</v>
+        <v>24.65339467434958</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.9972238981342</v>
+        <v>16.10425483877714</v>
       </c>
       <c r="C5">
-        <v>7.576602833136397</v>
+        <v>8.342260119897194</v>
       </c>
       <c r="D5">
-        <v>2.503340416182263</v>
+        <v>5.403541818846336</v>
       </c>
       <c r="E5">
-        <v>6.867585008253957</v>
+        <v>11.59677618763787</v>
       </c>
       <c r="F5">
-        <v>37.4127424479129</v>
+        <v>49.42828629178047</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.14456795294891</v>
+        <v>10.32807719104952</v>
       </c>
       <c r="K5">
-        <v>12.38206750283784</v>
+        <v>15.80079021640747</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.96994366379561</v>
+        <v>18.20402125706596</v>
       </c>
       <c r="N5">
-        <v>17.41474550227569</v>
+        <v>24.66287388062705</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.95920960610345</v>
+        <v>16.09811674951884</v>
       </c>
       <c r="C6">
-        <v>7.553716859758268</v>
+        <v>8.338365141916729</v>
       </c>
       <c r="D6">
-        <v>2.499379645100498</v>
+        <v>5.403925197621175</v>
       </c>
       <c r="E6">
-        <v>6.862344754586855</v>
+        <v>11.59740762248293</v>
       </c>
       <c r="F6">
-        <v>37.3773425776009</v>
+        <v>49.42578413543087</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.144741534618293</v>
+        <v>10.32893391189455</v>
       </c>
       <c r="K6">
-        <v>12.3528113966571</v>
+        <v>15.79730012768238</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.95248869786447</v>
+        <v>18.20362438668593</v>
       </c>
       <c r="N6">
-        <v>17.41938415652615</v>
+        <v>24.66447589548988</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.22186519748386</v>
+        <v>16.14108278051276</v>
       </c>
       <c r="C7">
-        <v>7.711691641664848</v>
+        <v>8.365594747687148</v>
       </c>
       <c r="D7">
-        <v>2.526856124666989</v>
+        <v>5.401347584913049</v>
       </c>
       <c r="E7">
-        <v>6.898978766683518</v>
+        <v>11.59319045559868</v>
       </c>
       <c r="F7">
-        <v>37.62461232523531</v>
+        <v>49.4439698021071</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.143749266621787</v>
+        <v>10.32308512650855</v>
       </c>
       <c r="K7">
-        <v>12.55527747282973</v>
+        <v>15.82187402361765</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.07383951651972</v>
+        <v>18.20670921074441</v>
       </c>
       <c r="N7">
-        <v>17.38762063838394</v>
+        <v>24.65352063719063</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.34931284588386</v>
+        <v>16.33933335829807</v>
       </c>
       <c r="C8">
-        <v>8.386249712963563</v>
+        <v>8.49036196950145</v>
       </c>
       <c r="D8">
-        <v>2.647433985489262</v>
+        <v>5.392034872055294</v>
       </c>
       <c r="E8">
-        <v>7.066962136944177</v>
+        <v>11.57867890912977</v>
       </c>
       <c r="F8">
-        <v>38.75373810059715</v>
+        <v>49.54440998367838</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.144741602758312</v>
+        <v>10.29969399727488</v>
       </c>
       <c r="K8">
-        <v>13.43219522450774</v>
+        <v>15.93881741590471</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.61322216148519</v>
+        <v>18.22847048921902</v>
       </c>
       <c r="N8">
-        <v>17.25846200364786</v>
+        <v>24.60924784947331</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.43410663422397</v>
+        <v>16.75636212660863</v>
       </c>
       <c r="C9">
-        <v>9.626464874361918</v>
+        <v>8.749640890341789</v>
       </c>
       <c r="D9">
-        <v>2.879082897666613</v>
+        <v>5.381147751617442</v>
       </c>
       <c r="E9">
-        <v>7.417849285965354</v>
+        <v>11.56492542711225</v>
       </c>
       <c r="F9">
-        <v>41.09968571038949</v>
+        <v>49.81334306824617</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.167101735010593</v>
+        <v>10.26250021165269</v>
       </c>
       <c r="K9">
-        <v>15.08050407818856</v>
+        <v>16.19736501944239</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.67711537542508</v>
+        <v>18.30019734324548</v>
       </c>
       <c r="N9">
-        <v>17.04765046328395</v>
+        <v>24.53706314533306</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.88219057815713</v>
+        <v>17.07729917188322</v>
       </c>
       <c r="C10">
-        <v>10.56551918878067</v>
+        <v>8.947217428870372</v>
       </c>
       <c r="D10">
-        <v>3.044575501809486</v>
+        <v>5.37761047632593</v>
       </c>
       <c r="E10">
-        <v>7.687694970735917</v>
+        <v>11.56375586315977</v>
       </c>
       <c r="F10">
-        <v>42.90043111538054</v>
+        <v>50.05413698946126</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.197071542650463</v>
+        <v>10.24044919917005</v>
       </c>
       <c r="K10">
-        <v>16.24784760635617</v>
+        <v>16.40380482387853</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.45689012060458</v>
+        <v>18.37034949442809</v>
       </c>
       <c r="N10">
-        <v>16.92176413891304</v>
+        <v>24.49295535631572</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.55889569897251</v>
+        <v>17.22586761958424</v>
       </c>
       <c r="C11">
-        <v>10.97586901392275</v>
+        <v>9.038242865189606</v>
       </c>
       <c r="D11">
-        <v>3.118550626862035</v>
+        <v>5.376961640402539</v>
       </c>
       <c r="E11">
-        <v>7.812890442239352</v>
+        <v>11.56515551078205</v>
       </c>
       <c r="F11">
-        <v>43.73613980286466</v>
+        <v>50.17288486241453</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.213902359661372</v>
+        <v>10.2315600257243</v>
       </c>
       <c r="K11">
-        <v>16.87518927377519</v>
+        <v>16.50099017372081</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.81037591587665</v>
+        <v>18.40598589497839</v>
       </c>
       <c r="N11">
-        <v>16.87157953003057</v>
+        <v>24.47482904465743</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.82628634783735</v>
+        <v>17.28244610970791</v>
       </c>
       <c r="C12">
-        <v>11.12892134059222</v>
+        <v>9.072843642523711</v>
       </c>
       <c r="D12">
-        <v>3.146356156505471</v>
+        <v>5.376853225500333</v>
       </c>
       <c r="E12">
-        <v>7.860638403193596</v>
+        <v>11.56596233606292</v>
       </c>
       <c r="F12">
-        <v>44.05499270753287</v>
+        <v>50.21915784560949</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.220758282974639</v>
+        <v>10.22835787249782</v>
       </c>
       <c r="K12">
-        <v>17.10890517210017</v>
+        <v>16.53823512940021</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.94400729249364</v>
+        <v>18.42000917043445</v>
       </c>
       <c r="N12">
-        <v>16.85366917994008</v>
+        <v>24.46824396038384</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.76888391817023</v>
+        <v>17.27024755273882</v>
       </c>
       <c r="C13">
-        <v>11.09606135154621</v>
+        <v>9.065386430792644</v>
       </c>
       <c r="D13">
-        <v>3.140377216816291</v>
+        <v>5.376870482185155</v>
       </c>
       <c r="E13">
-        <v>7.85034008713717</v>
+        <v>11.56577627740261</v>
       </c>
       <c r="F13">
-        <v>43.98621527216066</v>
+        <v>50.20913437115425</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.219259901597167</v>
+        <v>10.22904022396393</v>
       </c>
       <c r="K13">
-        <v>17.05873916087496</v>
+        <v>16.53019451391107</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.91523799064274</v>
+        <v>18.41696561697131</v>
       </c>
       <c r="N13">
-        <v>16.85747657550671</v>
+        <v>24.46964976628754</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.58097760550062</v>
+        <v>17.23051626872394</v>
       </c>
       <c r="C14">
-        <v>10.98850707314152</v>
+        <v>9.041087048783776</v>
       </c>
       <c r="D14">
-        <v>3.120842453128706</v>
+        <v>5.376949974443409</v>
       </c>
       <c r="E14">
-        <v>7.816811952218182</v>
+        <v>11.56521634710809</v>
       </c>
       <c r="F14">
-        <v>43.76232397654455</v>
+        <v>50.17666571197282</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.214456595865527</v>
+        <v>10.23129329749936</v>
       </c>
       <c r="K14">
-        <v>16.89449352185819</v>
+        <v>16.50404562373217</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.82137458424824</v>
+        <v>18.4071290473903</v>
       </c>
       <c r="N14">
-        <v>16.87008365970907</v>
+        <v>24.47428169398234</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.46533592527287</v>
+        <v>17.20621971554717</v>
       </c>
       <c r="C15">
-        <v>10.92232508862194</v>
+        <v>9.026219101866683</v>
       </c>
       <c r="D15">
-        <v>3.108849358666964</v>
+        <v>5.377016519534038</v>
       </c>
       <c r="E15">
-        <v>7.796318885159875</v>
+        <v>11.56490939148084</v>
       </c>
       <c r="F15">
-        <v>43.62549600338574</v>
+        <v>50.15694718669474</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.21157796267902</v>
+        <v>10.23269471876099</v>
       </c>
       <c r="K15">
-        <v>16.79339151341701</v>
+        <v>16.48808551836724</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.76385001415532</v>
+        <v>18.40117248018339</v>
       </c>
       <c r="N15">
-        <v>16.87795063751232</v>
+        <v>24.47715521764894</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.83998478186983</v>
+        <v>17.06763727638195</v>
       </c>
       <c r="C16">
-        <v>10.53836994037182</v>
+        <v>8.941288910200464</v>
       </c>
       <c r="D16">
-        <v>3.039713000901046</v>
+        <v>5.3776721353727</v>
       </c>
       <c r="E16">
-        <v>7.679561170075039</v>
+        <v>11.56370318385771</v>
       </c>
       <c r="F16">
-        <v>42.84614845004302</v>
+        <v>50.04656030631158</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.196037852271967</v>
+        <v>10.24105308724868</v>
       </c>
       <c r="K16">
-        <v>16.2069575517896</v>
+        <v>16.3975170611489</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.43375953274196</v>
+        <v>18.36809492574411</v>
       </c>
       <c r="N16">
-        <v>16.92519255868798</v>
+        <v>24.49417897862655</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.46801102461909</v>
+        <v>16.98324403330262</v>
       </c>
       <c r="C17">
-        <v>10.29856998055182</v>
+        <v>8.889456810174801</v>
       </c>
       <c r="D17">
-        <v>2.99695011404272</v>
+        <v>5.378319733818673</v>
       </c>
       <c r="E17">
-        <v>7.608549683406124</v>
+        <v>11.56345732070474</v>
       </c>
       <c r="F17">
-        <v>42.37227639750961</v>
+        <v>49.9811876296214</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.187339084459514</v>
+        <v>10.24647299653725</v>
       </c>
       <c r="K17">
-        <v>15.90793403622757</v>
+        <v>16.34277540055674</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.23090235398689</v>
+        <v>18.34875193894439</v>
       </c>
       <c r="N17">
-        <v>16.95603864407657</v>
+        <v>24.50511915143101</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.25230007279498</v>
+        <v>16.93494849097582</v>
       </c>
       <c r="C18">
-        <v>10.15905362248118</v>
+        <v>8.859754300381658</v>
       </c>
       <c r="D18">
-        <v>2.972231774162515</v>
+        <v>5.378782653834426</v>
       </c>
       <c r="E18">
-        <v>7.567936038635597</v>
+        <v>11.56349779238326</v>
       </c>
       <c r="F18">
-        <v>42.10127207430543</v>
+        <v>49.94445505880815</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.18263529530093</v>
+        <v>10.24969788419571</v>
       </c>
       <c r="K18">
-        <v>15.73483753439653</v>
+        <v>16.31159942055045</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.11410945054001</v>
+        <v>18.33797732429348</v>
       </c>
       <c r="N18">
-        <v>16.97444209486422</v>
+        <v>24.51159410257006</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.17896214591207</v>
+        <v>16.91864012132288</v>
       </c>
       <c r="C19">
-        <v>10.11154042040982</v>
+        <v>8.849717449153189</v>
       </c>
       <c r="D19">
-        <v>2.963842219722562</v>
+        <v>5.378954947042791</v>
       </c>
       <c r="E19">
-        <v>7.554224934207579</v>
+        <v>11.5635427617024</v>
       </c>
       <c r="F19">
-        <v>42.00978190019289</v>
+        <v>49.93216767038025</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.181093448533545</v>
+        <v>10.25080824556216</v>
       </c>
       <c r="K19">
-        <v>15.67604134257055</v>
+        <v>16.30109784558191</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.07454744373713</v>
+        <v>18.33438970392435</v>
       </c>
       <c r="N19">
-        <v>16.98078466070957</v>
+        <v>24.5138177402519</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.50779069795835</v>
+        <v>16.99220282872921</v>
       </c>
       <c r="C20">
-        <v>10.32426107160402</v>
+        <v>8.894963290668381</v>
       </c>
       <c r="D20">
-        <v>3.00151510093684</v>
+        <v>5.378241441451797</v>
       </c>
       <c r="E20">
-        <v>7.616085242730569</v>
+        <v>11.56346467537573</v>
       </c>
       <c r="F20">
-        <v>42.42256005978307</v>
+        <v>49.98805695083216</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.188233925461555</v>
+        <v>10.24588491381168</v>
       </c>
       <c r="K20">
-        <v>15.93988035737578</v>
+        <v>16.34857086239083</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.25250914086915</v>
+        <v>18.35077475829679</v>
       </c>
       <c r="N20">
-        <v>16.95268603464913</v>
+        <v>24.50393566684647</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.63628331489957</v>
+        <v>17.24217806401079</v>
       </c>
       <c r="C21">
-        <v>11.02016112180623</v>
+        <v>9.048221064890322</v>
       </c>
       <c r="D21">
-        <v>3.126586043607241</v>
+        <v>5.376922906440853</v>
       </c>
       <c r="E21">
-        <v>7.826650848231114</v>
+        <v>11.56537330802843</v>
       </c>
       <c r="F21">
-        <v>43.82802120631845</v>
+        <v>50.18616726315</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.215854160799375</v>
+        <v>10.23062706656084</v>
       </c>
       <c r="K21">
-        <v>16.94283974347164</v>
+        <v>16.51171439117703</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.84895096084373</v>
+        <v>18.41000400010239</v>
       </c>
       <c r="N21">
-        <v>16.86635033652189</v>
+        <v>24.47291361216663</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.40687838883011</v>
+        <v>17.40738613245043</v>
       </c>
       <c r="C22">
-        <v>11.46138918064915</v>
+        <v>9.149134643911758</v>
       </c>
       <c r="D22">
-        <v>3.207113132761583</v>
+        <v>5.376860958288778</v>
       </c>
       <c r="E22">
-        <v>7.96624205191873</v>
+        <v>11.56823362521543</v>
       </c>
       <c r="F22">
-        <v>44.76052304757204</v>
+        <v>50.3232448729481</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.236729432730198</v>
+        <v>10.22161089307629</v>
       </c>
       <c r="K22">
-        <v>17.6160954597585</v>
+        <v>16.62090660858227</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.23743470729745</v>
+        <v>18.45179084824575</v>
       </c>
       <c r="N22">
-        <v>16.81633963783927</v>
+        <v>24.45426496992797</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.9977910869111</v>
+        <v>17.31906046751379</v>
       </c>
       <c r="C23">
-        <v>11.22711023563606</v>
+        <v>9.095217441733574</v>
       </c>
       <c r="D23">
-        <v>3.164250662695246</v>
+        <v>5.376821120164934</v>
       </c>
       <c r="E23">
-        <v>7.891561771916869</v>
+        <v>11.56655979081354</v>
       </c>
       <c r="F23">
-        <v>44.26153975532454</v>
+        <v>50.24939504236443</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.225321605106136</v>
+        <v>10.22633562400845</v>
       </c>
       <c r="K23">
-        <v>17.25876634930399</v>
+        <v>16.5624030822569</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.03022559288577</v>
+        <v>18.42920931345709</v>
       </c>
       <c r="N23">
-        <v>16.84241728703173</v>
+        <v>24.46406925136293</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.48981209520546</v>
+        <v>16.98815185801112</v>
       </c>
       <c r="C24">
-        <v>10.31265128153065</v>
+        <v>8.89247350784669</v>
       </c>
       <c r="D24">
-        <v>2.999451684333155</v>
+        <v>5.378276555152352</v>
       </c>
       <c r="E24">
-        <v>7.612677755673324</v>
+        <v>11.56346078391768</v>
       </c>
       <c r="F24">
-        <v>42.39982235894287</v>
+        <v>49.98494867834285</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.187828443677671</v>
+        <v>10.24615044675654</v>
       </c>
       <c r="K24">
-        <v>15.92544111087189</v>
+        <v>16.34594981081836</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.24274123068862</v>
+        <v>18.34985916363458</v>
       </c>
       <c r="N24">
-        <v>16.95419966921806</v>
+        <v>24.5044701430168</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.88447660356247</v>
+        <v>16.6407914186623</v>
       </c>
       <c r="C25">
-        <v>9.297848984708539</v>
+        <v>8.678121090375967</v>
       </c>
       <c r="D25">
-        <v>2.817128492245499</v>
+        <v>5.383306808568723</v>
       </c>
       <c r="E25">
-        <v>7.320738831601011</v>
+        <v>11.56707445192789</v>
       </c>
       <c r="F25">
-        <v>40.45132048163045</v>
+        <v>49.7329463378708</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.158757307499545</v>
+        <v>10.27163468487243</v>
       </c>
       <c r="K25">
-        <v>14.6430984753786</v>
+        <v>16.12442470455844</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.38928436279085</v>
+        <v>18.27770701164929</v>
       </c>
       <c r="N25">
-        <v>17.09983324054216</v>
+        <v>24.55502383133981</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.39505822365226</v>
+        <v>15.64661085604568</v>
       </c>
       <c r="C2">
-        <v>8.525222701492536</v>
+        <v>8.563320045787172</v>
       </c>
       <c r="D2">
-        <v>5.390011855418391</v>
+        <v>2.679854529043834</v>
       </c>
       <c r="E2">
-        <v>11.57574284004636</v>
+        <v>7.113971428209361</v>
       </c>
       <c r="F2">
-        <v>49.57651527291279</v>
+        <v>39.06873455809539</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.293943827033</v>
+        <v>6.146353117704188</v>
       </c>
       <c r="K2">
-        <v>15.97252694999251</v>
+        <v>13.6653162337529</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.23634088441713</v>
+        <v>12.7600284433239</v>
       </c>
       <c r="N2">
-        <v>24.59824231507136</v>
+        <v>17.22623649985436</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.23565866884602</v>
+        <v>14.77502521965008</v>
       </c>
       <c r="C3">
-        <v>8.425275859132425</v>
+        <v>8.043309419610111</v>
       </c>
       <c r="D3">
-        <v>5.396439464675177</v>
+        <v>2.585514362296278</v>
       </c>
       <c r="E3">
-        <v>11.58537427125258</v>
+        <v>6.97929236505267</v>
       </c>
       <c r="F3">
-        <v>49.48887899350181</v>
+        <v>38.16526727226881</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.31127922875074</v>
+        <v>6.143199363791287</v>
       </c>
       <c r="K3">
-        <v>15.87701324052378</v>
+        <v>12.98402169977743</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.21572541783846</v>
+        <v>12.33489033127216</v>
       </c>
       <c r="N3">
-        <v>24.63127097962112</v>
+        <v>17.32284090742855</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.14159039517525</v>
+        <v>14.22492208072613</v>
       </c>
       <c r="C4">
-        <v>8.365915977353515</v>
+        <v>7.713528150315918</v>
       </c>
       <c r="D4">
-        <v>5.401318553319227</v>
+        <v>2.527177393135819</v>
       </c>
       <c r="E4">
-        <v>11.59314335261705</v>
+        <v>6.899410948474135</v>
       </c>
       <c r="F4">
-        <v>49.44419366543287</v>
+        <v>37.62752669124112</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.3230180125713</v>
+        <v>6.143740544147706</v>
       </c>
       <c r="K4">
-        <v>15.82216627869775</v>
+        <v>12.55763823719373</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.206749774208</v>
+        <v>12.07526200597862</v>
       </c>
       <c r="N4">
-        <v>24.65339467434958</v>
+        <v>17.38725486531082</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.10425483877714</v>
+        <v>13.99722389813416</v>
       </c>
       <c r="C5">
-        <v>8.342260119897194</v>
+        <v>7.576602833136437</v>
       </c>
       <c r="D5">
-        <v>5.403541818846336</v>
+        <v>2.503340416182159</v>
       </c>
       <c r="E5">
-        <v>11.59677618763787</v>
+        <v>6.867585008253966</v>
       </c>
       <c r="F5">
-        <v>49.42828629178047</v>
+        <v>37.41274244791305</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.32807719104952</v>
+        <v>6.144567952948911</v>
       </c>
       <c r="K5">
-        <v>15.80079021640747</v>
+        <v>12.38206750283786</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.20402125706596</v>
+        <v>11.96994366379564</v>
       </c>
       <c r="N5">
-        <v>24.66287388062705</v>
+        <v>17.41474550227583</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.09811674951884</v>
+        <v>13.95920960610344</v>
       </c>
       <c r="C6">
-        <v>8.338365141916729</v>
+        <v>7.553716859758302</v>
       </c>
       <c r="D6">
-        <v>5.403925197621175</v>
+        <v>2.49937964510045</v>
       </c>
       <c r="E6">
-        <v>11.59740762248293</v>
+        <v>6.862344754586946</v>
       </c>
       <c r="F6">
-        <v>49.42578413543087</v>
+        <v>37.37734257760098</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.32893391189455</v>
+        <v>6.144741534618346</v>
       </c>
       <c r="K6">
-        <v>15.79730012768238</v>
+        <v>12.35281139665713</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.20362438668593</v>
+        <v>11.95248869786453</v>
       </c>
       <c r="N6">
-        <v>24.66447589548988</v>
+        <v>17.41938415652621</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.14108278051276</v>
+        <v>14.22186519748386</v>
       </c>
       <c r="C7">
-        <v>8.365594747687148</v>
+        <v>7.71169164166476</v>
       </c>
       <c r="D7">
-        <v>5.401347584913049</v>
+        <v>2.526856124666907</v>
       </c>
       <c r="E7">
-        <v>11.59319045559868</v>
+        <v>6.898978766683476</v>
       </c>
       <c r="F7">
-        <v>49.4439698021071</v>
+        <v>37.62461232523508</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.32308512650855</v>
+        <v>6.143749266621872</v>
       </c>
       <c r="K7">
-        <v>15.82187402361765</v>
+        <v>12.55527747282971</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.20670921074441</v>
+        <v>12.0738395165197</v>
       </c>
       <c r="N7">
-        <v>24.65352063719063</v>
+        <v>17.38762063838387</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.33933335829807</v>
+        <v>15.34931284588386</v>
       </c>
       <c r="C8">
-        <v>8.49036196950145</v>
+        <v>8.38624971296357</v>
       </c>
       <c r="D8">
-        <v>5.392034872055294</v>
+        <v>2.647433985489207</v>
       </c>
       <c r="E8">
-        <v>11.57867890912977</v>
+        <v>7.066962136944081</v>
       </c>
       <c r="F8">
-        <v>49.54440998367838</v>
+        <v>38.7537381005973</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.29969399727488</v>
+        <v>6.144741602758303</v>
       </c>
       <c r="K8">
-        <v>15.93881741590471</v>
+        <v>13.43219522450777</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.22847048921902</v>
+        <v>12.61322216148518</v>
       </c>
       <c r="N8">
-        <v>24.60924784947331</v>
+        <v>17.25846200364794</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.75636212660863</v>
+        <v>17.43410663422395</v>
       </c>
       <c r="C9">
-        <v>8.749640890341789</v>
+        <v>9.626464874361918</v>
       </c>
       <c r="D9">
-        <v>5.381147751617442</v>
+        <v>2.879082897666542</v>
       </c>
       <c r="E9">
-        <v>11.56492542711225</v>
+        <v>7.417849285965359</v>
       </c>
       <c r="F9">
-        <v>49.81334306824617</v>
+        <v>41.09968571038947</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.26250021165269</v>
+        <v>6.167101735010676</v>
       </c>
       <c r="K9">
-        <v>16.19736501944239</v>
+        <v>15.08050407818855</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.30019734324548</v>
+        <v>13.67711537542508</v>
       </c>
       <c r="N9">
-        <v>24.53706314533306</v>
+        <v>17.04765046328394</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.07729917188322</v>
+        <v>18.88219057815711</v>
       </c>
       <c r="C10">
-        <v>8.947217428870372</v>
+        <v>10.56551918878056</v>
       </c>
       <c r="D10">
-        <v>5.37761047632593</v>
+        <v>3.044575501809383</v>
       </c>
       <c r="E10">
-        <v>11.56375586315977</v>
+        <v>7.687694970735823</v>
       </c>
       <c r="F10">
-        <v>50.05413698946126</v>
+        <v>42.90043111538054</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.24044919917005</v>
+        <v>6.197071542650467</v>
       </c>
       <c r="K10">
-        <v>16.40380482387853</v>
+        <v>16.2478476063561</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.37034949442809</v>
+        <v>14.45689012060459</v>
       </c>
       <c r="N10">
-        <v>24.49295535631572</v>
+        <v>16.92176413891308</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.22586761958424</v>
+        <v>19.55889569897234</v>
       </c>
       <c r="C11">
-        <v>9.038242865189606</v>
+        <v>10.97586901392275</v>
       </c>
       <c r="D11">
-        <v>5.376961640402539</v>
+        <v>3.118550626862061</v>
       </c>
       <c r="E11">
-        <v>11.56515551078205</v>
+        <v>7.812890442239337</v>
       </c>
       <c r="F11">
-        <v>50.17288486241453</v>
+        <v>43.73613980286485</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.2315600257243</v>
+        <v>6.213902359661383</v>
       </c>
       <c r="K11">
-        <v>16.50099017372081</v>
+        <v>16.87518927377507</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.40598589497839</v>
+        <v>14.81037591587668</v>
       </c>
       <c r="N11">
-        <v>24.47482904465743</v>
+        <v>16.87157953003069</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.28244610970791</v>
+        <v>19.82628634783735</v>
       </c>
       <c r="C12">
-        <v>9.072843642523711</v>
+        <v>11.12892134059214</v>
       </c>
       <c r="D12">
-        <v>5.376853225500333</v>
+        <v>3.146356156505509</v>
       </c>
       <c r="E12">
-        <v>11.56596233606292</v>
+        <v>7.860638403193565</v>
       </c>
       <c r="F12">
-        <v>50.21915784560949</v>
+        <v>44.0549927075329</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.22835787249782</v>
+        <v>6.220758282974578</v>
       </c>
       <c r="K12">
-        <v>16.53823512940021</v>
+        <v>17.10890517210013</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.42000917043445</v>
+        <v>14.94400729249363</v>
       </c>
       <c r="N12">
-        <v>24.46824396038384</v>
+        <v>16.85366917994012</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.27024755273882</v>
+        <v>19.76888391817024</v>
       </c>
       <c r="C13">
-        <v>9.065386430792644</v>
+        <v>11.09606135154619</v>
       </c>
       <c r="D13">
-        <v>5.376870482185155</v>
+        <v>3.140377216816279</v>
       </c>
       <c r="E13">
-        <v>11.56577627740261</v>
+        <v>7.850340087137192</v>
       </c>
       <c r="F13">
-        <v>50.20913437115425</v>
+        <v>43.98621527216066</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.22904022396393</v>
+        <v>6.219259901597166</v>
       </c>
       <c r="K13">
-        <v>16.53019451391107</v>
+        <v>17.05873916087496</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.41696561697131</v>
+        <v>14.91523799064276</v>
       </c>
       <c r="N13">
-        <v>24.46964976628754</v>
+        <v>16.85747657550677</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.23051626872394</v>
+        <v>19.5809776055006</v>
       </c>
       <c r="C14">
-        <v>9.041087048783776</v>
+        <v>10.98850707314145</v>
       </c>
       <c r="D14">
-        <v>5.376949974443409</v>
+        <v>3.120842453128734</v>
       </c>
       <c r="E14">
-        <v>11.56521634710809</v>
+        <v>7.816811952218276</v>
       </c>
       <c r="F14">
-        <v>50.17666571197282</v>
+        <v>43.76232397654448</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.23129329749936</v>
+        <v>6.214456595865555</v>
       </c>
       <c r="K14">
-        <v>16.50404562373217</v>
+        <v>16.89449352185815</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.4071290473903</v>
+        <v>14.82137458424825</v>
       </c>
       <c r="N14">
-        <v>24.47428169398234</v>
+        <v>16.8700836597091</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.20621971554717</v>
+        <v>19.46533592527283</v>
       </c>
       <c r="C15">
-        <v>9.026219101866683</v>
+        <v>10.92232508862199</v>
       </c>
       <c r="D15">
-        <v>5.377016519534038</v>
+        <v>3.108849358666879</v>
       </c>
       <c r="E15">
-        <v>11.56490939148084</v>
+        <v>7.796318885159789</v>
       </c>
       <c r="F15">
-        <v>50.15694718669474</v>
+        <v>43.62549600338576</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.23269471876099</v>
+        <v>6.211577962679015</v>
       </c>
       <c r="K15">
-        <v>16.48808551836724</v>
+        <v>16.793391513417</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.40117248018339</v>
+        <v>14.76385001415531</v>
       </c>
       <c r="N15">
-        <v>24.47715521764894</v>
+        <v>16.87795063751233</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.06763727638195</v>
+        <v>18.83998478186983</v>
       </c>
       <c r="C16">
-        <v>8.941288910200464</v>
+        <v>10.53836994037179</v>
       </c>
       <c r="D16">
-        <v>5.3776721353727</v>
+        <v>3.039713000901117</v>
       </c>
       <c r="E16">
-        <v>11.56370318385771</v>
+        <v>7.679561170075039</v>
       </c>
       <c r="F16">
-        <v>50.04656030631158</v>
+        <v>42.84614845004291</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.24105308724868</v>
+        <v>6.196037852271887</v>
       </c>
       <c r="K16">
-        <v>16.3975170611489</v>
+        <v>16.2069575517896</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.36809492574411</v>
+        <v>14.43375953274194</v>
       </c>
       <c r="N16">
-        <v>24.49417897862655</v>
+        <v>16.9251925586878</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.98324403330262</v>
+        <v>18.46801102461906</v>
       </c>
       <c r="C17">
-        <v>8.889456810174801</v>
+        <v>10.29856998055183</v>
       </c>
       <c r="D17">
-        <v>5.378319733818673</v>
+        <v>2.99695011404265</v>
       </c>
       <c r="E17">
-        <v>11.56345732070474</v>
+        <v>7.608549683406079</v>
       </c>
       <c r="F17">
-        <v>49.9811876296214</v>
+        <v>42.37227639750966</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.24647299653725</v>
+        <v>6.187339084459534</v>
       </c>
       <c r="K17">
-        <v>16.34277540055674</v>
+        <v>15.90793403622758</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.34875193894439</v>
+        <v>14.23090235398691</v>
       </c>
       <c r="N17">
-        <v>24.50511915143101</v>
+        <v>16.95603864407664</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.93494849097582</v>
+        <v>18.25230007279497</v>
       </c>
       <c r="C18">
-        <v>8.859754300381658</v>
+        <v>10.15905362248116</v>
       </c>
       <c r="D18">
-        <v>5.378782653834426</v>
+        <v>2.972231774162508</v>
       </c>
       <c r="E18">
-        <v>11.56349779238326</v>
+        <v>7.567936038635558</v>
       </c>
       <c r="F18">
-        <v>49.94445505880815</v>
+        <v>42.10127207430526</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.24969788419571</v>
+        <v>6.182635295300883</v>
       </c>
       <c r="K18">
-        <v>16.31159942055045</v>
+        <v>15.7348375343965</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.33797732429348</v>
+        <v>14.11410945053998</v>
       </c>
       <c r="N18">
-        <v>24.51159410257006</v>
+        <v>16.97444209486418</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.91864012132288</v>
+        <v>18.1789621459121</v>
       </c>
       <c r="C19">
-        <v>8.849717449153189</v>
+        <v>10.11154042040975</v>
       </c>
       <c r="D19">
-        <v>5.378954947042791</v>
+        <v>2.963842219722563</v>
       </c>
       <c r="E19">
-        <v>11.5635427617024</v>
+        <v>7.554224934207547</v>
       </c>
       <c r="F19">
-        <v>49.93216767038025</v>
+        <v>42.00978190019293</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.25080824556216</v>
+        <v>6.181093448533545</v>
       </c>
       <c r="K19">
-        <v>16.30109784558191</v>
+        <v>15.67604134257055</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.33438970392435</v>
+        <v>14.07454744373713</v>
       </c>
       <c r="N19">
-        <v>24.5138177402519</v>
+        <v>16.98078466070955</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.99220282872921</v>
+        <v>18.50779069795835</v>
       </c>
       <c r="C20">
-        <v>8.894963290668381</v>
+        <v>10.32426107160397</v>
       </c>
       <c r="D20">
-        <v>5.378241441451797</v>
+        <v>3.001515100936798</v>
       </c>
       <c r="E20">
-        <v>11.56346467537573</v>
+        <v>7.61608524273062</v>
       </c>
       <c r="F20">
-        <v>49.98805695083216</v>
+        <v>42.42256005978307</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.24588491381168</v>
+        <v>6.188233925461631</v>
       </c>
       <c r="K20">
-        <v>16.34857086239083</v>
+        <v>15.93988035737579</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.35077475829679</v>
+        <v>14.25250914086918</v>
       </c>
       <c r="N20">
-        <v>24.50393566684647</v>
+        <v>16.95268603464913</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.24217806401079</v>
+        <v>19.63628331489948</v>
       </c>
       <c r="C21">
-        <v>9.048221064890322</v>
+        <v>11.0201611218062</v>
       </c>
       <c r="D21">
-        <v>5.376922906440853</v>
+        <v>3.126586043607181</v>
       </c>
       <c r="E21">
-        <v>11.56537330802843</v>
+        <v>7.826650848231055</v>
       </c>
       <c r="F21">
-        <v>50.18616726315</v>
+        <v>43.82802120631852</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.23062706656084</v>
+        <v>6.215854160799402</v>
       </c>
       <c r="K21">
-        <v>16.51171439117703</v>
+        <v>16.94283974347157</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.41000400010239</v>
+        <v>14.84895096084373</v>
       </c>
       <c r="N21">
-        <v>24.47291361216663</v>
+        <v>16.86635033652203</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.40738613245043</v>
+        <v>20.40687838882997</v>
       </c>
       <c r="C22">
-        <v>9.149134643911758</v>
+        <v>11.46138918064928</v>
       </c>
       <c r="D22">
-        <v>5.376860958288778</v>
+        <v>3.20711313276164</v>
       </c>
       <c r="E22">
-        <v>11.56823362521543</v>
+        <v>7.96624205191869</v>
       </c>
       <c r="F22">
-        <v>50.3232448729481</v>
+        <v>44.7605230475721</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.22161089307629</v>
+        <v>6.23672943273016</v>
       </c>
       <c r="K22">
-        <v>16.62090660858227</v>
+        <v>17.61609545975845</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.45179084824575</v>
+        <v>15.23743470729745</v>
       </c>
       <c r="N22">
-        <v>24.45426496992797</v>
+        <v>16.81633963783933</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.31906046751379</v>
+        <v>19.99779108691115</v>
       </c>
       <c r="C23">
-        <v>9.095217441733574</v>
+        <v>11.22711023563607</v>
       </c>
       <c r="D23">
-        <v>5.376821120164934</v>
+        <v>3.164250662695298</v>
       </c>
       <c r="E23">
-        <v>11.56655979081354</v>
+        <v>7.891561771916915</v>
       </c>
       <c r="F23">
-        <v>50.24939504236443</v>
+        <v>44.26153975532451</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.22633562400845</v>
+        <v>6.225321605106147</v>
       </c>
       <c r="K23">
-        <v>16.5624030822569</v>
+        <v>17.25876634930407</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.42920931345709</v>
+        <v>15.03022559288577</v>
       </c>
       <c r="N23">
-        <v>24.46406925136293</v>
+        <v>16.84241728703168</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.98815185801112</v>
+        <v>18.48981209520543</v>
       </c>
       <c r="C24">
-        <v>8.89247350784669</v>
+        <v>10.31265128153061</v>
       </c>
       <c r="D24">
-        <v>5.378276555152352</v>
+        <v>2.999451684333135</v>
       </c>
       <c r="E24">
-        <v>11.56346078391768</v>
+        <v>7.612677755673257</v>
       </c>
       <c r="F24">
-        <v>49.98494867834285</v>
+        <v>42.39982235894287</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.24615044675654</v>
+        <v>6.18782844367766</v>
       </c>
       <c r="K24">
-        <v>16.34594981081836</v>
+        <v>15.92544111087187</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.34985916363458</v>
+        <v>14.24274123068862</v>
       </c>
       <c r="N24">
-        <v>24.5044701430168</v>
+        <v>16.95419966921806</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.6407914186623</v>
+        <v>16.88447660356248</v>
       </c>
       <c r="C25">
-        <v>8.678121090375967</v>
+        <v>9.297848984708521</v>
       </c>
       <c r="D25">
-        <v>5.383306808568723</v>
+        <v>2.817128492245481</v>
       </c>
       <c r="E25">
-        <v>11.56707445192789</v>
+        <v>7.32073883160097</v>
       </c>
       <c r="F25">
-        <v>49.7329463378708</v>
+        <v>40.45132048163042</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.27163468487243</v>
+        <v>6.158757307499521</v>
       </c>
       <c r="K25">
-        <v>16.12442470455844</v>
+        <v>14.64309847537859</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.27770701164929</v>
+        <v>13.38928436279083</v>
       </c>
       <c r="N25">
-        <v>24.55502383133981</v>
+        <v>17.09983324054213</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.64661085604568</v>
+        <v>21.34238669854258</v>
       </c>
       <c r="C2">
-        <v>8.563320045787172</v>
+        <v>15.08111615522825</v>
       </c>
       <c r="D2">
-        <v>2.679854529043834</v>
+        <v>4.889694759169134</v>
       </c>
       <c r="E2">
-        <v>7.113971428209361</v>
+        <v>8.597298638784622</v>
       </c>
       <c r="F2">
-        <v>39.06873455809539</v>
+        <v>18.62662398012983</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>2.164591822650835</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.759655352309978</v>
       </c>
       <c r="J2">
-        <v>6.146353117704188</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>13.6653162337529</v>
+        <v>14.25889324836074</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.7600284433239</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>17.22623649985436</v>
+        <v>6.703789683863848</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.68538901977894</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>15.01385706677448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.77502521965008</v>
+        <v>19.9466849778199</v>
       </c>
       <c r="C3">
-        <v>8.043309419610111</v>
+        <v>14.38270975809728</v>
       </c>
       <c r="D3">
-        <v>2.585514362296278</v>
+        <v>4.729485139953912</v>
       </c>
       <c r="E3">
-        <v>6.97929236505267</v>
+        <v>8.518948271464808</v>
       </c>
       <c r="F3">
-        <v>38.16526727226881</v>
+        <v>18.22414749056473</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>2.365061917797538</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.92906643923989</v>
       </c>
       <c r="J3">
-        <v>6.143199363791287</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>12.98402169977743</v>
+        <v>14.43462268845827</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.33489033127216</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>17.32284090742855</v>
+        <v>6.536582897155864</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.02718813181882</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.91476572054376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.22492208072613</v>
+        <v>19.03732607804229</v>
       </c>
       <c r="C4">
-        <v>7.713528150315918</v>
+        <v>13.93836380429969</v>
       </c>
       <c r="D4">
-        <v>2.527177393135819</v>
+        <v>4.628218513967679</v>
       </c>
       <c r="E4">
-        <v>6.899410948474135</v>
+        <v>8.469148089228591</v>
       </c>
       <c r="F4">
-        <v>37.62752669124112</v>
+        <v>17.98342993859375</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>2.492383718627403</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.037489631949648</v>
       </c>
       <c r="J4">
-        <v>6.143740544147706</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>12.55763823719373</v>
+        <v>14.54772980991994</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.07526200597862</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>17.38725486531082</v>
+        <v>6.431841529936243</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.60462889484439</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.86167291370024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.99722389813416</v>
+        <v>18.65325605655899</v>
       </c>
       <c r="C5">
-        <v>7.576602833136437</v>
+        <v>13.76264052759114</v>
       </c>
       <c r="D5">
-        <v>2.503340416182159</v>
+        <v>4.587935775772537</v>
       </c>
       <c r="E5">
-        <v>6.867585008253966</v>
+        <v>8.447753100797776</v>
       </c>
       <c r="F5">
-        <v>37.41274244791305</v>
+        <v>17.87693485612205</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>2.545631305759338</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.085600312949186</v>
       </c>
       <c r="J5">
-        <v>6.144567952948911</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>12.38206750283786</v>
+        <v>14.58901658082013</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.96994366379564</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>17.41474550227583</v>
+        <v>6.38911260757436</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.42848297553697</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.83439430386895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.95920960610344</v>
+        <v>18.58833274241154</v>
       </c>
       <c r="C6">
-        <v>7.553716859758302</v>
+        <v>13.74442954345574</v>
       </c>
       <c r="D6">
-        <v>2.49937964510045</v>
+        <v>4.583268136524624</v>
       </c>
       <c r="E6">
-        <v>6.862344754586946</v>
+        <v>8.44336833982538</v>
       </c>
       <c r="F6">
-        <v>37.37734257760098</v>
+        <v>17.84700059415049</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>2.554882741904604</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.097276176772516</v>
       </c>
       <c r="J6">
-        <v>6.144741534618346</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>12.35281139665713</v>
+        <v>14.58853410966521</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.95248869786453</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>17.41938415652621</v>
+        <v>6.382531472271941</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.39963542092143</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.8207545334135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.22186519748386</v>
+        <v>19.03126848328484</v>
       </c>
       <c r="C7">
-        <v>7.71169164166476</v>
+        <v>13.96615090597461</v>
       </c>
       <c r="D7">
-        <v>2.526856124666907</v>
+        <v>4.633276019578499</v>
       </c>
       <c r="E7">
-        <v>6.898978766683476</v>
+        <v>8.466713845246476</v>
       </c>
       <c r="F7">
-        <v>37.62461232523508</v>
+        <v>17.94849488918099</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>2.494016247037248</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.047726203238495</v>
       </c>
       <c r="J7">
-        <v>6.143749266621872</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>12.55527747282971</v>
+        <v>14.52801907276607</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.0738395165197</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>17.38762063838387</v>
+        <v>6.432745488883351</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.60405291040753</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.83618501407803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.34931284588386</v>
+        <v>20.87086388038589</v>
       </c>
       <c r="C8">
-        <v>8.38624971296357</v>
+        <v>14.88160309095003</v>
       </c>
       <c r="D8">
-        <v>2.647433985489207</v>
+        <v>4.8423137595073</v>
       </c>
       <c r="E8">
-        <v>7.066962136944081</v>
+        <v>8.568018383306759</v>
       </c>
       <c r="F8">
-        <v>38.7537381005973</v>
+        <v>18.44352870847356</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>2.233971949291502</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.829546583962072</v>
       </c>
       <c r="J8">
-        <v>6.144741602758303</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>13.43219522450777</v>
+        <v>14.29153657258654</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.61322216148518</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>17.25846200364794</v>
+        <v>6.648526178775667</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.46450894521842</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.94525370739495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.43410663422395</v>
+        <v>24.06604614001886</v>
       </c>
       <c r="C9">
-        <v>9.626464874361918</v>
+        <v>16.49918712812008</v>
       </c>
       <c r="D9">
-        <v>2.879082897666542</v>
+        <v>5.218392132874458</v>
       </c>
       <c r="E9">
-        <v>7.417849285965359</v>
+        <v>8.757238705828883</v>
       </c>
       <c r="F9">
-        <v>41.09968571038947</v>
+        <v>19.51865633566947</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>1.755357829103212</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.53548699577343</v>
       </c>
       <c r="J9">
-        <v>6.167101735010676</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>15.08050407818855</v>
+        <v>13.90752273207957</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.67711537542508</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>17.04765046328394</v>
+        <v>7.051227964627657</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.99817066614446</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15.26685149522882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.88219057815711</v>
+        <v>26.18073529747582</v>
       </c>
       <c r="C10">
-        <v>10.56551918878056</v>
+        <v>17.70923826613951</v>
       </c>
       <c r="D10">
-        <v>3.044575501809383</v>
+        <v>5.506611304660851</v>
       </c>
       <c r="E10">
-        <v>7.687694970735823</v>
+        <v>8.884691659625107</v>
       </c>
       <c r="F10">
-        <v>42.90043111538054</v>
+        <v>20.17235821591319</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>1.690174768273233</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.807911248752906</v>
       </c>
       <c r="J10">
-        <v>6.197071542650467</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>16.2478476063561</v>
+        <v>13.5527886036114</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.45689012060459</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>16.92176413891308</v>
+        <v>7.236992258714922</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.95738846639022</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15.4176199666798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.55889569897234</v>
+        <v>27.23325459767649</v>
       </c>
       <c r="C11">
-        <v>10.97586901392275</v>
+        <v>19.07656981882392</v>
       </c>
       <c r="D11">
-        <v>3.118550626862061</v>
+        <v>5.86872351894145</v>
       </c>
       <c r="E11">
-        <v>7.812890442239337</v>
+        <v>9.145152587378343</v>
       </c>
       <c r="F11">
-        <v>43.73613980286485</v>
+        <v>19.18237340125452</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>2.689112735724676</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.901975555059283</v>
       </c>
       <c r="J11">
-        <v>6.213902359661383</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>16.87518927377507</v>
+        <v>12.60692214154746</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.81037591587668</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>16.87157953003069</v>
+        <v>6.522513270863955</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.75889203060271</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14.46589555660763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.82628634783735</v>
+        <v>27.69670671180738</v>
       </c>
       <c r="C12">
-        <v>11.12892134059214</v>
+        <v>19.96988712070783</v>
       </c>
       <c r="D12">
-        <v>3.146356156505509</v>
+        <v>6.117324246028966</v>
       </c>
       <c r="E12">
-        <v>7.860638403193565</v>
+        <v>9.635012891036251</v>
       </c>
       <c r="F12">
-        <v>44.0549927075329</v>
+        <v>18.23485879724326</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.027230270328459</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.924044718731155</v>
       </c>
       <c r="J12">
-        <v>6.220758282974578</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>17.10890517210013</v>
+        <v>11.97035279649708</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.94400729249363</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>16.85366917994012</v>
+        <v>5.956838708584733</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.38273677022519</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.65806728923393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.76888391817024</v>
+        <v>27.74954525525388</v>
       </c>
       <c r="C13">
-        <v>11.09606135154619</v>
+        <v>20.60988661662793</v>
       </c>
       <c r="D13">
-        <v>3.140377216816279</v>
+        <v>6.304227831625196</v>
       </c>
       <c r="E13">
-        <v>7.850340087137192</v>
+        <v>10.28215838750289</v>
       </c>
       <c r="F13">
-        <v>43.98621527216066</v>
+        <v>17.19565937922587</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.48338768812004</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.896644440815185</v>
       </c>
       <c r="J13">
-        <v>6.219259901597166</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>17.05873916087496</v>
+        <v>11.51789081497759</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.91523799064276</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>16.85747657550677</v>
+        <v>5.493140412172261</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.83871835610651</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.87042368855877</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.5809776055006</v>
+        <v>27.60167837478483</v>
       </c>
       <c r="C14">
-        <v>10.98850707314145</v>
+        <v>20.96020699629745</v>
       </c>
       <c r="D14">
-        <v>3.120842453128734</v>
+        <v>6.410878995805046</v>
       </c>
       <c r="E14">
-        <v>7.816811952218276</v>
+        <v>10.81791448860812</v>
       </c>
       <c r="F14">
-        <v>43.76232397654448</v>
+        <v>16.41198754201496</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.506588497946788</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.856490018217364</v>
       </c>
       <c r="J14">
-        <v>6.214456595865555</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>16.89449352185815</v>
+        <v>11.30083066492918</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.82137458424825</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>16.8700836597091</v>
+        <v>5.245125291716286</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.3749410341662</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.3258758202946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.46533592527283</v>
+        <v>27.47664611608502</v>
       </c>
       <c r="C15">
-        <v>10.92232508862199</v>
+        <v>21.00066431538349</v>
       </c>
       <c r="D15">
-        <v>3.108849358666879</v>
+        <v>6.42499735312302</v>
       </c>
       <c r="E15">
-        <v>7.796318885159789</v>
+        <v>10.94661634886746</v>
       </c>
       <c r="F15">
-        <v>43.62549600338576</v>
+        <v>16.19193920496819</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.743941073534512</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.837149214066113</v>
       </c>
       <c r="J15">
-        <v>6.211577962679015</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>16.793391513417</v>
+        <v>11.27708185554671</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.76385001415531</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>16.87795063751233</v>
+        <v>5.196199594846588</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.22607948344693</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.19171242516683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.83998478186983</v>
+        <v>26.61148754043814</v>
       </c>
       <c r="C16">
-        <v>10.53836994037179</v>
+        <v>20.42956697211335</v>
       </c>
       <c r="D16">
-        <v>3.039713000901117</v>
+        <v>6.277686085577419</v>
       </c>
       <c r="E16">
-        <v>7.679561170075039</v>
+        <v>10.75493487174504</v>
       </c>
       <c r="F16">
-        <v>42.84614845004291</v>
+        <v>16.05626531643538</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.539178860315435</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.728185544305125</v>
       </c>
       <c r="J16">
-        <v>6.196037852271887</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>16.2069575517896</v>
+        <v>11.52586176989568</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.43375953274194</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>16.9251925586878</v>
+        <v>5.199773085975125</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.90445726317081</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.26264364603295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.46801102461906</v>
+        <v>26.01435596556107</v>
       </c>
       <c r="C17">
-        <v>10.29856998055183</v>
+        <v>19.78739515713961</v>
       </c>
       <c r="D17">
-        <v>2.99695011404265</v>
+        <v>6.103912650039595</v>
       </c>
       <c r="E17">
-        <v>7.608549683406079</v>
+        <v>10.30021374177998</v>
       </c>
       <c r="F17">
-        <v>42.37227639750966</v>
+        <v>16.38099560086104</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.807211879925265</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.666167821518829</v>
       </c>
       <c r="J17">
-        <v>6.187339084459534</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>15.90793403622758</v>
+        <v>11.81914688514243</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.23090235398691</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>16.95603864407664</v>
+        <v>5.320546325667711</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.91209844422786</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.60575095214633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.25230007279497</v>
+        <v>25.59418547402074</v>
       </c>
       <c r="C18">
-        <v>10.15905362248116</v>
+        <v>19.00088496764603</v>
       </c>
       <c r="D18">
-        <v>2.972231774162508</v>
+        <v>5.887384183790831</v>
       </c>
       <c r="E18">
-        <v>7.567936038635558</v>
+        <v>9.661910257542376</v>
       </c>
       <c r="F18">
-        <v>42.10127207430526</v>
+        <v>17.15619651481046</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.561540877709467</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.635432856975841</v>
       </c>
       <c r="J18">
-        <v>6.182635295300883</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>15.7348375343965</v>
+        <v>12.23641456980455</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.11410945053998</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>16.97444209486418</v>
+        <v>5.629738951036102</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.20437703734734</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13.24162527689568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.1789621459121</v>
+        <v>25.35422857661456</v>
       </c>
       <c r="C19">
-        <v>10.11154042040975</v>
+        <v>18.23289121791962</v>
       </c>
       <c r="D19">
-        <v>2.963842219722563</v>
+        <v>5.671150552380914</v>
       </c>
       <c r="E19">
-        <v>7.554224934207547</v>
+        <v>9.10972482343503</v>
       </c>
       <c r="F19">
-        <v>42.00978190019293</v>
+        <v>18.1724414414335</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.086305250464949</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.645389084989325</v>
       </c>
       <c r="J19">
-        <v>6.181093448533545</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>15.67604134257055</v>
+        <v>12.75865115988699</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.07454744373713</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>16.98078466070955</v>
+        <v>6.158427396233397</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.69876152862658</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>14.0331312365113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.50779069795835</v>
+        <v>25.64081681877851</v>
       </c>
       <c r="C20">
-        <v>10.32426107160397</v>
+        <v>17.48161880821046</v>
       </c>
       <c r="D20">
-        <v>3.001515100936798</v>
+        <v>5.449330719866587</v>
       </c>
       <c r="E20">
-        <v>7.61608524273062</v>
+        <v>8.846585140218425</v>
       </c>
       <c r="F20">
-        <v>42.42256005978307</v>
+        <v>19.8994364325626</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>1.603298804227043</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.748910061010257</v>
       </c>
       <c r="J20">
-        <v>6.188233925461631</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>15.93988035737579</v>
+        <v>13.57706256135646</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.25250914086918</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>16.95268603464913</v>
+        <v>7.1886626774201</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.71263221485392</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15.29609744880405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.63628331489948</v>
+        <v>27.16003783020841</v>
       </c>
       <c r="C21">
-        <v>11.0201611218062</v>
+        <v>18.22205703486156</v>
       </c>
       <c r="D21">
-        <v>3.126586043607181</v>
+        <v>5.621802505576595</v>
       </c>
       <c r="E21">
-        <v>7.826650848231055</v>
+        <v>8.949614277855744</v>
       </c>
       <c r="F21">
-        <v>43.82802120631852</v>
+        <v>20.65367079911726</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>1.852696388154683</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.958019510412278</v>
       </c>
       <c r="J21">
-        <v>6.215854160799402</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>16.94283974347157</v>
+        <v>13.47078971690381</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.84895096084373</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>16.86635033652203</v>
+        <v>7.478597374215465</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.52729266263811</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15.6207182311197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.40687838882997</v>
+        <v>28.11811386331759</v>
       </c>
       <c r="C22">
-        <v>11.46138918064928</v>
+        <v>18.70658925685896</v>
       </c>
       <c r="D22">
-        <v>3.20711313276164</v>
+        <v>5.738076731279159</v>
       </c>
       <c r="E22">
-        <v>7.96624205191869</v>
+        <v>9.015943715318528</v>
       </c>
       <c r="F22">
-        <v>44.7605230475721</v>
+        <v>21.11144020214505</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>2.009978728667295</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.086327347879097</v>
       </c>
       <c r="J22">
-        <v>6.23672943273016</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>17.61609545975845</v>
+        <v>13.38791189376027</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.23743470729745</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>16.81633963783933</v>
+        <v>7.613092531024054</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.00281916919955</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15.81187626798182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.99779108691115</v>
+        <v>27.61161249532957</v>
       </c>
       <c r="C23">
-        <v>11.22711023563607</v>
+        <v>18.42070544666936</v>
       </c>
       <c r="D23">
-        <v>3.164250662695298</v>
+        <v>5.670450865451572</v>
       </c>
       <c r="E23">
-        <v>7.891561771916915</v>
+        <v>8.982386307735604</v>
       </c>
       <c r="F23">
-        <v>44.26153975532451</v>
+        <v>20.90070841510678</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>1.927072669979282</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.01367346326206</v>
       </c>
       <c r="J23">
-        <v>6.225321605106147</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>17.25876634930407</v>
+        <v>13.45563989401006</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.03022559288577</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>16.84241728703168</v>
+        <v>7.539924103963201</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.74922671295695</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15.7364555553824</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.48981209520543</v>
+        <v>25.60301935620452</v>
       </c>
       <c r="C24">
-        <v>10.31265128153061</v>
+        <v>17.35028226449122</v>
       </c>
       <c r="D24">
-        <v>2.999451684333135</v>
+        <v>5.41685779098859</v>
       </c>
       <c r="E24">
-        <v>7.612677755673257</v>
+        <v>8.850679850604864</v>
       </c>
       <c r="F24">
-        <v>42.39982235894287</v>
+        <v>20.05639002240418</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>1.605916201108999</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.741056002956911</v>
       </c>
       <c r="J24">
-        <v>6.18782844367766</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>15.92544111087187</v>
+        <v>13.68810289980637</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.24274123068862</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>16.95419966921806</v>
+        <v>7.259957040416973</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.75401762419877</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15.42521134133585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.88447660356248</v>
+        <v>23.24425899592998</v>
       </c>
       <c r="C25">
-        <v>9.297848984708521</v>
+        <v>16.12433684339671</v>
       </c>
       <c r="D25">
-        <v>2.817128492245481</v>
+        <v>5.128940206488488</v>
       </c>
       <c r="E25">
-        <v>7.32073883160097</v>
+        <v>8.704173156986052</v>
       </c>
       <c r="F25">
-        <v>40.45132048163042</v>
+        <v>19.16719382603043</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>1.882827257193782</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.545957738649862</v>
       </c>
       <c r="J25">
-        <v>6.158757307499521</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>14.64309847537859</v>
+        <v>13.96973917023031</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.38928436279083</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>17.09983324054213</v>
+        <v>6.946979225769727</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.60265167283994</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>15.1289548596937</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.34238669854258</v>
+        <v>21.38867186508365</v>
       </c>
       <c r="C2">
-        <v>15.08111615522825</v>
+        <v>15.31707871865281</v>
       </c>
       <c r="D2">
-        <v>4.889694759169134</v>
+        <v>4.920506967850643</v>
       </c>
       <c r="E2">
-        <v>8.597298638784622</v>
+        <v>8.573964012236312</v>
       </c>
       <c r="F2">
-        <v>18.62662398012983</v>
+        <v>18.0200702295564</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.164591822650835</v>
+        <v>2.069818129533032</v>
       </c>
       <c r="I2">
-        <v>2.759655352309978</v>
+        <v>2.644436820847539</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>14.25889324836074</v>
+        <v>13.69908381381302</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.65799702428806</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.587505907526999</v>
       </c>
       <c r="N2">
-        <v>6.703789683863848</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.68538901977894</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.807578114238451</v>
       </c>
       <c r="Q2">
-        <v>15.01385706677448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.70124456621423</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.49492277827822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.9466849778199</v>
+        <v>20.00133864000865</v>
       </c>
       <c r="C3">
-        <v>14.38270975809728</v>
+        <v>14.51373577107513</v>
       </c>
       <c r="D3">
-        <v>4.729485139953912</v>
+        <v>4.737303773555801</v>
       </c>
       <c r="E3">
-        <v>8.518948271464808</v>
+        <v>8.499722323140729</v>
       </c>
       <c r="F3">
-        <v>18.22414749056473</v>
+        <v>17.68270161866291</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.365061917797538</v>
+        <v>2.257743252503354</v>
       </c>
       <c r="I3">
-        <v>2.92906643923989</v>
+        <v>2.797478046549026</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>14.43462268845827</v>
+        <v>13.90539373429577</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.85391374369404</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.730020719164539</v>
       </c>
       <c r="N3">
-        <v>6.536582897155864</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.02718813181882</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.646088155634583</v>
       </c>
       <c r="Q3">
-        <v>14.91476572054376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.03613379155009</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.44479110364316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.03732607804229</v>
+        <v>19.09753854948847</v>
       </c>
       <c r="C4">
-        <v>13.93836380429969</v>
+        <v>14.00157614998098</v>
       </c>
       <c r="D4">
-        <v>4.628218513967679</v>
+        <v>4.621475879035787</v>
       </c>
       <c r="E4">
-        <v>8.469148089228591</v>
+        <v>8.452707815833458</v>
       </c>
       <c r="F4">
-        <v>17.98342993859375</v>
+        <v>17.48129913878269</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.492383718627403</v>
+        <v>2.377124717391013</v>
       </c>
       <c r="I4">
-        <v>3.037489631949648</v>
+        <v>2.895753012308409</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>14.54772980991994</v>
+        <v>14.03595480340888</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.97735546088799</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.837153629495779</v>
       </c>
       <c r="N4">
-        <v>6.431841529936243</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.60462889484439</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.545262694638564</v>
       </c>
       <c r="Q4">
-        <v>14.86167291370024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.60878498417298</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.42068584945666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.65325605655899</v>
+        <v>18.71585331059279</v>
       </c>
       <c r="C5">
-        <v>13.76264052759114</v>
+        <v>13.79741442970582</v>
       </c>
       <c r="D5">
-        <v>4.587935775772537</v>
+        <v>4.575165879458172</v>
       </c>
       <c r="E5">
-        <v>8.447753100797776</v>
+        <v>8.432609448917725</v>
       </c>
       <c r="F5">
-        <v>17.87693485612205</v>
+        <v>17.39103643960732</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.545631305759338</v>
+        <v>2.427071367416671</v>
       </c>
       <c r="I5">
-        <v>3.085600312949186</v>
+        <v>2.940215741553041</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>14.58901658082013</v>
+        <v>14.08452866588567</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.02303656171576</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.882685376008734</v>
       </c>
       <c r="N5">
-        <v>6.38911260757436</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.42848297553697</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.504201648147268</v>
       </c>
       <c r="Q5">
-        <v>14.83439430386895</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.43052748232424</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.40529922933332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.58833274241154</v>
+        <v>18.65133298563994</v>
       </c>
       <c r="C6">
-        <v>13.74442954345574</v>
+        <v>13.77444359513578</v>
       </c>
       <c r="D6">
-        <v>4.583268136524624</v>
+        <v>4.569498269671683</v>
       </c>
       <c r="E6">
-        <v>8.44336833982538</v>
+        <v>8.428559981312139</v>
       </c>
       <c r="F6">
-        <v>17.84700059415049</v>
+        <v>17.36430698495046</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.554882741904604</v>
+        <v>2.435766413905291</v>
       </c>
       <c r="I6">
-        <v>3.097276176772516</v>
+        <v>2.951962634309727</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>14.58853410966521</v>
+        <v>14.08583691805669</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.02406407725905</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.88699367468406</v>
       </c>
       <c r="N6">
-        <v>6.382531472271941</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.39963542092143</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.497865258343868</v>
       </c>
       <c r="Q6">
-        <v>14.8207545334135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.4012946710037</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.3940649409537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.03126848328484</v>
+        <v>19.09151254697274</v>
       </c>
       <c r="C7">
-        <v>13.96615090597461</v>
+        <v>14.02900040785297</v>
       </c>
       <c r="D7">
-        <v>4.633276019578499</v>
+        <v>4.626471439301798</v>
       </c>
       <c r="E7">
-        <v>8.466713845246476</v>
+        <v>8.450622850562322</v>
       </c>
       <c r="F7">
-        <v>17.94849488918099</v>
+        <v>17.44803258166124</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.494016247037248</v>
+        <v>2.378700126216541</v>
       </c>
       <c r="I7">
-        <v>3.047726203238495</v>
+        <v>2.90772621089411</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>14.52801907276607</v>
+        <v>14.01806460433644</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.96047384112734</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.827508792102853</v>
       </c>
       <c r="N7">
-        <v>6.432745488883351</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.60405291040753</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.546086464669743</v>
       </c>
       <c r="Q7">
-        <v>14.83618501407803</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.60811041325882</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.39661483601905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.87086388038589</v>
+        <v>20.91996294918535</v>
       </c>
       <c r="C8">
-        <v>14.88160309095003</v>
+        <v>15.08205810886508</v>
       </c>
       <c r="D8">
-        <v>4.8423137595073</v>
+        <v>4.865320254635634</v>
       </c>
       <c r="E8">
-        <v>8.568018383306759</v>
+        <v>8.54654682265039</v>
       </c>
       <c r="F8">
-        <v>18.44352870847356</v>
+        <v>17.86148605271311</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.233971949291502</v>
+        <v>2.134901308721931</v>
       </c>
       <c r="I8">
-        <v>2.829546583962072</v>
+        <v>2.711020288700908</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>14.29153657258654</v>
+        <v>13.74517773083742</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.70405874898568</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.616506080609907</v>
       </c>
       <c r="N8">
-        <v>6.648526178775667</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.46450894521842</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.754079758685108</v>
       </c>
       <c r="Q8">
-        <v>14.94525370739495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.47800610899068</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.44517160113561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.06604614001886</v>
+        <v>24.09608498068292</v>
       </c>
       <c r="C9">
-        <v>16.49918712812008</v>
+        <v>16.94155336405054</v>
       </c>
       <c r="D9">
-        <v>5.218392132874458</v>
+        <v>5.29584252521127</v>
       </c>
       <c r="E9">
-        <v>8.757238705828883</v>
+        <v>8.726560436207837</v>
       </c>
       <c r="F9">
-        <v>19.51865633566947</v>
+        <v>18.77086918521106</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.755357829103212</v>
+        <v>1.68637246041225</v>
       </c>
       <c r="I9">
-        <v>2.53548699577343</v>
+        <v>2.620783134426522</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>13.90752273207957</v>
+        <v>13.27466062027897</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.25298942682411</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.38866288767746</v>
       </c>
       <c r="N9">
-        <v>7.051227964627657</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>13.99817066614446</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.144804256763845</v>
       </c>
       <c r="Q9">
-        <v>15.26685149522882</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.02599562589889</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.63798840243363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.18073529747582</v>
+        <v>26.19826633622775</v>
       </c>
       <c r="C10">
-        <v>17.70923826613951</v>
+        <v>18.29896671862296</v>
       </c>
       <c r="D10">
-        <v>5.506611304660851</v>
+        <v>5.6190133815849</v>
       </c>
       <c r="E10">
-        <v>8.884691659625107</v>
+        <v>8.85698436911137</v>
       </c>
       <c r="F10">
-        <v>20.17235821591319</v>
+        <v>19.32252355371076</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.690174768273233</v>
+        <v>1.736907269804998</v>
       </c>
       <c r="I10">
-        <v>2.807911248752906</v>
+        <v>2.868786339866715</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>13.5527886036114</v>
+        <v>12.86819929186374</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.881632635273</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.256983333036073</v>
       </c>
       <c r="N10">
-        <v>7.236992258714922</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.95738846639022</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.322407807256804</v>
       </c>
       <c r="Q10">
-        <v>15.4176199666798</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.9922496046636</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.7070196211183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.23325459767649</v>
+        <v>27.24830898437665</v>
       </c>
       <c r="C11">
-        <v>19.07656981882392</v>
+        <v>19.6177993281204</v>
       </c>
       <c r="D11">
-        <v>5.86872351894145</v>
+        <v>5.975774253142162</v>
       </c>
       <c r="E11">
-        <v>9.145152587378343</v>
+        <v>9.179530027668841</v>
       </c>
       <c r="F11">
-        <v>19.18237340125452</v>
+        <v>18.4449403577554</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.689112735724676</v>
+        <v>2.714989588452119</v>
       </c>
       <c r="I11">
-        <v>2.901975555059283</v>
+        <v>2.957263720195684</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>12.60692214154746</v>
+        <v>12.06196326676253</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.33119734845689</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.631764715312237</v>
       </c>
       <c r="N11">
-        <v>6.522513270863955</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.75889203060271</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.594217173270376</v>
       </c>
       <c r="Q11">
-        <v>14.46589555660763</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.78891867017529</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.85380704462144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.69670671180738</v>
+        <v>27.71202844846665</v>
       </c>
       <c r="C12">
-        <v>19.96988712070783</v>
+        <v>20.4321602470701</v>
       </c>
       <c r="D12">
-        <v>6.117324246028966</v>
+        <v>6.210113720927319</v>
       </c>
       <c r="E12">
-        <v>9.635012891036251</v>
+        <v>9.70023378520024</v>
       </c>
       <c r="F12">
-        <v>18.23485879724326</v>
+        <v>17.61318525568923</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.027230270328459</v>
+        <v>4.042487005340472</v>
       </c>
       <c r="I12">
-        <v>2.924044718731155</v>
+        <v>2.977420236275126</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>11.97035279649708</v>
+        <v>11.54386457577868</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.01671096256257</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.167264285650789</v>
       </c>
       <c r="N12">
-        <v>5.956838708584733</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.38273677022519</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.018289852394427</v>
       </c>
       <c r="Q12">
-        <v>13.65806728923393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.40745309673415</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.14472643958387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.74954525525388</v>
+        <v>27.76728548918347</v>
       </c>
       <c r="C13">
-        <v>20.60988661662793</v>
+        <v>20.96497916728833</v>
       </c>
       <c r="D13">
-        <v>6.304227831625196</v>
+        <v>6.375434016587815</v>
       </c>
       <c r="E13">
-        <v>10.28215838750289</v>
+        <v>10.35586619684268</v>
       </c>
       <c r="F13">
-        <v>17.19565937922587</v>
+        <v>16.70360185198713</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.48338768812004</v>
+        <v>5.471876827577846</v>
       </c>
       <c r="I13">
-        <v>2.896644440815185</v>
+        <v>2.952392373181288</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>11.51789081497759</v>
+        <v>11.19727365598401</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.826572823306412</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.799888601917502</v>
       </c>
       <c r="N13">
-        <v>5.493140412172261</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.83871835610651</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.547286350440241</v>
       </c>
       <c r="Q13">
-        <v>12.87042368855877</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.85711862484376</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.46420149597674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.60167837478483</v>
+        <v>27.62206854589436</v>
       </c>
       <c r="C14">
-        <v>20.96020699629745</v>
+        <v>21.22583971101441</v>
       </c>
       <c r="D14">
-        <v>6.410878995805046</v>
+        <v>6.463370461161236</v>
       </c>
       <c r="E14">
-        <v>10.81791448860812</v>
+        <v>10.88598966432131</v>
       </c>
       <c r="F14">
-        <v>16.41198754201496</v>
+        <v>16.01777901667727</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.506588497946788</v>
+        <v>6.495862074645976</v>
       </c>
       <c r="I14">
-        <v>2.856490018217364</v>
+        <v>2.916111078134517</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>11.30083066492918</v>
+        <v>11.04262980930118</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.746357816379343</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.608034246861662</v>
       </c>
       <c r="N14">
-        <v>5.245125291716286</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.3749410341662</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.296189741701679</v>
       </c>
       <c r="Q14">
-        <v>12.3258758202946</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.38829297150733</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.99761587345777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.47664611608502</v>
+        <v>27.49817451168631</v>
       </c>
       <c r="C15">
-        <v>21.00066431538349</v>
+        <v>21.23886288699332</v>
       </c>
       <c r="D15">
-        <v>6.42499735312302</v>
+        <v>6.471582570078318</v>
       </c>
       <c r="E15">
-        <v>10.94661634886746</v>
+        <v>11.01126923638398</v>
       </c>
       <c r="F15">
-        <v>16.19193920496819</v>
+        <v>15.82480166663043</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.743941073534512</v>
+        <v>6.733067598068368</v>
       </c>
       <c r="I15">
-        <v>2.837149214066113</v>
+        <v>2.899185319714308</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>11.27708185554671</v>
+        <v>11.03191143869138</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.740684120168003</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.58208330591591</v>
       </c>
       <c r="N15">
-        <v>5.196199594846588</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>13.22607948344693</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.247366936013711</v>
       </c>
       <c r="Q15">
-        <v>12.19171242516683</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.23790806153899</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.88424359198034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.61148754043814</v>
+        <v>26.63778906191673</v>
       </c>
       <c r="C16">
-        <v>20.42956697211335</v>
+        <v>20.62465841220402</v>
       </c>
       <c r="D16">
-        <v>6.277686085577419</v>
+        <v>6.313915394949412</v>
       </c>
       <c r="E16">
-        <v>10.75493487174504</v>
+        <v>10.81164173321119</v>
       </c>
       <c r="F16">
-        <v>16.05626531643538</v>
+        <v>15.71124707642275</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.539178860315435</v>
+        <v>6.52483544395371</v>
       </c>
       <c r="I16">
-        <v>2.728185544305125</v>
+        <v>2.800864020906066</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>11.52586176989568</v>
+        <v>11.26992588305968</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.865105041476689</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.765297658744593</v>
       </c>
       <c r="N16">
-        <v>5.199773085975125</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>12.90445726317081</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.258125777633288</v>
       </c>
       <c r="Q16">
-        <v>12.26264364603295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.91394100016524</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.96850513379257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.01435596556107</v>
+        <v>26.04292579773587</v>
       </c>
       <c r="C17">
-        <v>19.78739515713961</v>
+        <v>19.99860721647158</v>
       </c>
       <c r="D17">
-        <v>6.103912650039595</v>
+        <v>6.14241803192692</v>
       </c>
       <c r="E17">
-        <v>10.30021374177998</v>
+        <v>10.35592916894167</v>
       </c>
       <c r="F17">
-        <v>16.38099560086104</v>
+        <v>16.00004356028471</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.807211879925265</v>
+        <v>5.788841158708732</v>
       </c>
       <c r="I17">
-        <v>2.666167821518829</v>
+        <v>2.745060733505341</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>11.81914688514243</v>
+        <v>11.52729254431563</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.0150823230129</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.985145998062199</v>
       </c>
       <c r="N17">
-        <v>5.320546325667711</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>12.91209844422786</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.385383236034846</v>
       </c>
       <c r="Q17">
-        <v>12.60575095214633</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.92261210977581</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.28132525845468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.59418547402074</v>
+        <v>25.62300741316367</v>
       </c>
       <c r="C18">
-        <v>19.00088496764603</v>
+        <v>19.2796629837914</v>
       </c>
       <c r="D18">
-        <v>5.887384183790831</v>
+        <v>5.938656468645995</v>
       </c>
       <c r="E18">
-        <v>9.661910257542376</v>
+        <v>9.715279639698995</v>
       </c>
       <c r="F18">
-        <v>17.15619651481046</v>
+        <v>16.68444580285368</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.561540877709467</v>
+        <v>4.537056923609003</v>
       </c>
       <c r="I18">
-        <v>2.635432856975841</v>
+        <v>2.715959141356704</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>12.23641456980455</v>
+        <v>11.87367400266485</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.23998580980537</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.284143033457139</v>
       </c>
       <c r="N18">
-        <v>5.629738951036102</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.20437703734734</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.701345125034249</v>
       </c>
       <c r="Q18">
-        <v>13.24162527689568</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.21918097849522</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.84405126109776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.35422857661456</v>
+        <v>25.38152967004801</v>
       </c>
       <c r="C19">
-        <v>18.23289121791962</v>
+        <v>18.60883658220643</v>
       </c>
       <c r="D19">
-        <v>5.671150552380914</v>
+        <v>5.740838436017773</v>
       </c>
       <c r="E19">
-        <v>9.10972482343503</v>
+        <v>9.145728472457613</v>
       </c>
       <c r="F19">
-        <v>18.1724414414335</v>
+        <v>17.57493874272718</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.086305250464949</v>
+        <v>3.051402100706029</v>
       </c>
       <c r="I19">
-        <v>2.645389084989325</v>
+        <v>2.725608525479041</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>12.75865115988699</v>
+        <v>12.29260643744766</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.5256312860023</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.646155103713975</v>
       </c>
       <c r="N19">
-        <v>6.158427396233397</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.69876152862658</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.236988061092524</v>
       </c>
       <c r="Q19">
-        <v>14.0331312365113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.72000805459826</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.53299779509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.64081681877851</v>
+        <v>25.66164662944313</v>
       </c>
       <c r="C20">
-        <v>17.48161880821046</v>
+        <v>18.03268740075756</v>
       </c>
       <c r="D20">
-        <v>5.449330719866587</v>
+        <v>5.552653308136833</v>
       </c>
       <c r="E20">
-        <v>8.846585140218425</v>
+        <v>8.819670831091829</v>
       </c>
       <c r="F20">
-        <v>19.8994364325626</v>
+        <v>19.0814963113494</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.603298804227043</v>
+        <v>1.655441949155363</v>
       </c>
       <c r="I20">
-        <v>2.748910061010257</v>
+        <v>2.819376087875366</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>13.57706256135646</v>
+        <v>12.91495044857706</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.93743272207251</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.233994609017129</v>
       </c>
       <c r="N20">
-        <v>7.1886626774201</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.71263221485392</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.275866947751594</v>
       </c>
       <c r="Q20">
-        <v>15.29609744880405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.74557620937515</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.61204806354838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.16003783020841</v>
+        <v>27.17091139261415</v>
       </c>
       <c r="C21">
-        <v>18.22205703486156</v>
+        <v>18.89904191344836</v>
       </c>
       <c r="D21">
-        <v>5.621802505576595</v>
+        <v>5.754153731427296</v>
       </c>
       <c r="E21">
-        <v>8.949614277855744</v>
+        <v>8.912400919047784</v>
       </c>
       <c r="F21">
-        <v>20.65367079911726</v>
+        <v>19.72925644260264</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.852696388154683</v>
+        <v>1.889253012617014</v>
       </c>
       <c r="I21">
-        <v>2.958019510412278</v>
+        <v>3.008865852905798</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>13.47078971690381</v>
+        <v>12.73570520190547</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.7443060966257</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.27662160814155</v>
       </c>
       <c r="N21">
-        <v>7.478597374215465</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.52729266263811</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.561798865103084</v>
       </c>
       <c r="Q21">
-        <v>15.6207182311197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.56626703210594</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.84826712872085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.11811386331759</v>
+        <v>28.12271326773308</v>
       </c>
       <c r="C22">
-        <v>18.70658925685896</v>
+        <v>19.45649124395792</v>
       </c>
       <c r="D22">
-        <v>5.738076731279159</v>
+        <v>5.887708823000196</v>
       </c>
       <c r="E22">
-        <v>9.015943715318528</v>
+        <v>8.975699727110495</v>
       </c>
       <c r="F22">
-        <v>21.11144020214505</v>
+        <v>20.1258770755682</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.009978728667295</v>
+        <v>2.036466545566502</v>
       </c>
       <c r="I22">
-        <v>3.086327347879097</v>
+        <v>3.123527798421784</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>13.38791189376027</v>
+        <v>12.6093022516918</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.60918317737059</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.315942555848491</v>
       </c>
       <c r="N22">
-        <v>7.613092531024054</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.00281916919955</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.693501603138382</v>
       </c>
       <c r="Q22">
-        <v>15.81187626798182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.04487905105546</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.98773561788153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.61161249532957</v>
+        <v>27.61953332531096</v>
       </c>
       <c r="C23">
-        <v>18.42070544666936</v>
+        <v>19.1322877518753</v>
       </c>
       <c r="D23">
-        <v>5.670450865451572</v>
+        <v>5.810938292601961</v>
       </c>
       <c r="E23">
-        <v>8.982386307735604</v>
+        <v>8.943169806861452</v>
       </c>
       <c r="F23">
-        <v>20.90070841510678</v>
+        <v>19.94608901650632</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.927072669979282</v>
+        <v>1.958898856559499</v>
       </c>
       <c r="I23">
-        <v>3.01367346326206</v>
+        <v>3.056871769551536</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839356</v>
       </c>
       <c r="K23">
-        <v>13.45563989401006</v>
+        <v>12.69740700296178</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.69417702095205</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.31241212600634</v>
       </c>
       <c r="N23">
-        <v>7.539924103963201</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.74922671295695</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.621878403561497</v>
       </c>
       <c r="Q23">
-        <v>15.7364555553824</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.78974785576678</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.93834037176756</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.60301935620452</v>
+        <v>25.62369311561076</v>
       </c>
       <c r="C24">
-        <v>17.35028226449122</v>
+        <v>17.90928943524203</v>
       </c>
       <c r="D24">
-        <v>5.41685779098859</v>
+        <v>5.521394498104389</v>
       </c>
       <c r="E24">
-        <v>8.850679850604864</v>
+        <v>8.816662826160464</v>
       </c>
       <c r="F24">
-        <v>20.05639002240418</v>
+        <v>19.22316881446142</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.605916201108999</v>
+        <v>1.65825953834942</v>
       </c>
       <c r="I24">
-        <v>2.741056002956911</v>
+        <v>2.809417586335155</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>13.68810289980637</v>
+        <v>13.00793127610789</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.00179786947744</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.312157970675337</v>
       </c>
       <c r="N24">
-        <v>7.259957040416973</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.75401762419877</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.348204483018465</v>
       </c>
       <c r="Q24">
-        <v>15.42521134133585</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.78768302419439</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.72776856073848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.24425899592998</v>
+        <v>23.27924235139086</v>
       </c>
       <c r="C25">
-        <v>16.12433684339671</v>
+        <v>16.50417715088523</v>
       </c>
       <c r="D25">
-        <v>5.128940206488488</v>
+        <v>5.192159387154479</v>
       </c>
       <c r="E25">
-        <v>8.704173156986052</v>
+        <v>8.676544768310199</v>
       </c>
       <c r="F25">
-        <v>19.16719382603043</v>
+        <v>18.46691683529356</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.882827257193782</v>
+        <v>1.80585130891707</v>
       </c>
       <c r="I25">
-        <v>2.545957738649862</v>
+        <v>2.535578055979714</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>13.96973917023031</v>
+        <v>13.36572973673887</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.34767491556533</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.406248032219162</v>
       </c>
       <c r="N25">
-        <v>6.946979225769727</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.60265167283994</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.043325636126631</v>
       </c>
       <c r="Q25">
-        <v>15.1289548596937</v>
+        <v>13.62694304853623</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.53810039893752</v>
       </c>
     </row>
   </sheetData>
